--- a/mode2.xlsx
+++ b/mode2.xlsx
@@ -7,8 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-06-07_12-15" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-06-05_00-16" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-07-31_17-45" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-07-31_20-58" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,14 +427,1302 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AnnyQueen</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21233</v>
+      </c>
+      <c r="E2" t="n">
+        <v>95.39</v>
+      </c>
+      <c r="F2" t="n">
+        <v>751</v>
+      </c>
+      <c r="G2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Puppy</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12792</v>
+      </c>
+      <c r="E3" t="n">
+        <v>85.77</v>
+      </c>
+      <c r="F3" t="n">
+        <v>298</v>
+      </c>
+      <c r="G3" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>leqek</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12751</v>
+      </c>
+      <c r="E4" t="n">
+        <v>92.31</v>
+      </c>
+      <c r="F4" t="n">
+        <v>748</v>
+      </c>
+      <c r="G4" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aki</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8704</v>
+      </c>
+      <c r="E5" t="n">
+        <v>99.06</v>
+      </c>
+      <c r="F5" t="n">
+        <v>600</v>
+      </c>
+      <c r="G5" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PHiZER</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5122</v>
+      </c>
+      <c r="E6" t="n">
+        <v>90.47</v>
+      </c>
+      <c r="F6" t="n">
+        <v>473</v>
+      </c>
+      <c r="G6" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HXJ_ConveX</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4575</v>
+      </c>
+      <c r="E7" t="n">
+        <v>95.75</v>
+      </c>
+      <c r="F7" t="n">
+        <v>473</v>
+      </c>
+      <c r="G7" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>schliazterra</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4337</v>
+      </c>
+      <c r="E8" t="n">
+        <v>94.45</v>
+      </c>
+      <c r="F8" t="n">
+        <v>473</v>
+      </c>
+      <c r="G8" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>123ABC456789</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3877</v>
+      </c>
+      <c r="E9" t="n">
+        <v>87.63</v>
+      </c>
+      <c r="F9" t="n">
+        <v>344</v>
+      </c>
+      <c r="G9" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lieselotte</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3049</v>
+      </c>
+      <c r="E10" t="n">
+        <v>95.58</v>
+      </c>
+      <c r="F10" t="n">
+        <v>260</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>monkeydluffy3u4</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2899</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.01000000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>476</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>picnun3</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2503</v>
+      </c>
+      <c r="E12" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="F12" t="n">
+        <v>139</v>
+      </c>
+      <c r="G12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MgerSy</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2134</v>
+      </c>
+      <c r="E13" t="n">
+        <v>91.18000000000001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1090</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>oaboctor</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>6</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2117</v>
+      </c>
+      <c r="E14" t="n">
+        <v>87.56999999999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>270</v>
+      </c>
+      <c r="G14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>naxxx</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>6</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1992</v>
+      </c>
+      <c r="E15" t="n">
+        <v>86.37</v>
+      </c>
+      <c r="F15" t="n">
+        <v>339</v>
+      </c>
+      <c r="G15" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Kolaa</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>6</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1847</v>
+      </c>
+      <c r="E16" t="n">
+        <v>82.93000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>126</v>
+      </c>
+      <c r="G16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M-Reimu</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1685</v>
+      </c>
+      <c r="E17" t="n">
+        <v>84.16</v>
+      </c>
+      <c r="F17" t="n">
+        <v>219</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Xhs</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1678</v>
+      </c>
+      <c r="E18" t="n">
+        <v>83.81</v>
+      </c>
+      <c r="F18" t="n">
+        <v>167</v>
+      </c>
+      <c r="G18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Takumi_Matsuo</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1577</v>
+      </c>
+      <c r="E19" t="n">
+        <v>86.41</v>
+      </c>
+      <c r="F19" t="n">
+        <v>229</v>
+      </c>
+      <c r="G19" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>cai_lw</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1576</v>
+      </c>
+      <c r="E20" t="n">
+        <v>90.02</v>
+      </c>
+      <c r="F20" t="n">
+        <v>275</v>
+      </c>
+      <c r="G20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ilusions4</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1536</v>
+      </c>
+      <c r="E21" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="F21" t="n">
+        <v>473</v>
+      </c>
+      <c r="G21" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>kuerhaocai</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1397</v>
+      </c>
+      <c r="E22" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>276</v>
+      </c>
+      <c r="G22" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>brooster</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1266</v>
+      </c>
+      <c r="E23" t="n">
+        <v>88.94</v>
+      </c>
+      <c r="F23" t="n">
+        <v>201</v>
+      </c>
+      <c r="G23" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>minamiP</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1167</v>
+      </c>
+      <c r="E24" t="n">
+        <v>86.95999999999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>198</v>
+      </c>
+      <c r="G24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2005512s</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1165</v>
+      </c>
+      <c r="E25" t="n">
+        <v>88.69</v>
+      </c>
+      <c r="F25" t="n">
+        <v>229</v>
+      </c>
+      <c r="G25" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FA_MuLan</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E26" t="n">
+        <v>93.11</v>
+      </c>
+      <c r="F26" t="n">
+        <v>473</v>
+      </c>
+      <c r="G26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>kickster29</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>4</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1066</v>
+      </c>
+      <c r="E27" t="n">
+        <v>87.28</v>
+      </c>
+      <c r="F27" t="n">
+        <v>79</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Beth66</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>4</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1063</v>
+      </c>
+      <c r="E28" t="n">
+        <v>84.13</v>
+      </c>
+      <c r="F28" t="n">
+        <v>76</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>4</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1017</v>
+      </c>
+      <c r="E29" t="n">
+        <v>78.83</v>
+      </c>
+      <c r="F29" t="n">
+        <v>76</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Markes_D</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>4</v>
+      </c>
+      <c r="D30" t="n">
+        <v>997</v>
+      </c>
+      <c r="E30" t="n">
+        <v>92.20999999999999</v>
+      </c>
+      <c r="F30" t="n">
+        <v>226</v>
+      </c>
+      <c r="G30" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rustbell</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>4</v>
+      </c>
+      <c r="D31" t="n">
+        <v>986</v>
+      </c>
+      <c r="E31" t="n">
+        <v>93.52</v>
+      </c>
+      <c r="F31" t="n">
+        <v>665</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SQkun</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>866</v>
+      </c>
+      <c r="E32" t="n">
+        <v>86.53</v>
+      </c>
+      <c r="F32" t="n">
+        <v>148</v>
+      </c>
+      <c r="G32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DURAGONMO</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>3</v>
+      </c>
+      <c r="D33" t="n">
+        <v>842</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>238</v>
+      </c>
+      <c r="G33" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>00freeze00</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>829</v>
+      </c>
+      <c r="E34" t="n">
+        <v>85.84999999999999</v>
+      </c>
+      <c r="F34" t="n">
+        <v>113</v>
+      </c>
+      <c r="G34" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>LIGHT_MG</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>3</v>
+      </c>
+      <c r="D35" t="n">
+        <v>810</v>
+      </c>
+      <c r="E35" t="n">
+        <v>74.69</v>
+      </c>
+      <c r="F35" t="n">
+        <v>87</v>
+      </c>
+      <c r="G35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Taldeus</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>3</v>
+      </c>
+      <c r="D36" t="n">
+        <v>804</v>
+      </c>
+      <c r="E36" t="n">
+        <v>93.54000000000001</v>
+      </c>
+      <c r="F36" t="n">
+        <v>254</v>
+      </c>
+      <c r="G36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BANIP</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>3</v>
+      </c>
+      <c r="D37" t="n">
+        <v>797</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>98</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>_MASA</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>3</v>
+      </c>
+      <c r="D38" t="n">
+        <v>780</v>
+      </c>
+      <c r="E38" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="F38" t="n">
+        <v>180</v>
+      </c>
+      <c r="G38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>dtlnor</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>3</v>
+      </c>
+      <c r="D39" t="n">
+        <v>743</v>
+      </c>
+      <c r="E39" t="n">
+        <v>93.37</v>
+      </c>
+      <c r="F39" t="n">
+        <v>284</v>
+      </c>
+      <c r="G39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>miznejun</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>3</v>
+      </c>
+      <c r="D40" t="n">
+        <v>695</v>
+      </c>
+      <c r="E40" t="n">
+        <v>91.77</v>
+      </c>
+      <c r="F40" t="n">
+        <v>286</v>
+      </c>
+      <c r="G40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ChocolaNeko</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>3</v>
+      </c>
+      <c r="D41" t="n">
+        <v>693</v>
+      </c>
+      <c r="E41" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="F41" t="n">
+        <v>195</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Dora</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>3</v>
+      </c>
+      <c r="D42" t="n">
+        <v>658</v>
+      </c>
+      <c r="E42" t="n">
+        <v>83.28</v>
+      </c>
+      <c r="F42" t="n">
+        <v>187</v>
+      </c>
+      <c r="G42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>bocumamon</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>596</v>
+      </c>
+      <c r="E43" t="n">
+        <v>90.61</v>
+      </c>
+      <c r="F43" t="n">
+        <v>138</v>
+      </c>
+      <c r="G43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Rosebox</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>2</v>
+      </c>
+      <c r="D44" t="n">
+        <v>585</v>
+      </c>
+      <c r="E44" t="n">
+        <v>88.06999999999999</v>
+      </c>
+      <c r="F44" t="n">
+        <v>142</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ts_s_owl</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>557</v>
+      </c>
+      <c r="E45" t="n">
+        <v>94.27</v>
+      </c>
+      <c r="F45" t="n">
+        <v>560</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Thin76573</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>2</v>
+      </c>
+      <c r="D46" t="n">
+        <v>534</v>
+      </c>
+      <c r="E46" t="n">
+        <v>80.59</v>
+      </c>
+      <c r="F46" t="n">
+        <v>124</v>
+      </c>
+      <c r="G46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Azami_minase</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2</v>
+      </c>
+      <c r="D47" t="n">
+        <v>502</v>
+      </c>
+      <c r="E47" t="n">
+        <v>88.84</v>
+      </c>
+      <c r="F47" t="n">
+        <v>191</v>
+      </c>
+      <c r="G47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Thasyka</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>492</v>
+      </c>
+      <c r="E48" t="n">
+        <v>86.56</v>
+      </c>
+      <c r="F48" t="n">
+        <v>181</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>2</v>
+      </c>
+      <c r="D49" t="n">
+        <v>470</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>417</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TY-2</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>470</v>
+      </c>
+      <c r="E50" t="n">
+        <v>90.06</v>
+      </c>
+      <c r="F50" t="n">
+        <v>83</v>
+      </c>
+      <c r="G50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>nbdzxa</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D51" t="n">
+        <v>464</v>
+      </c>
+      <c r="E51" t="n">
+        <v>80.16</v>
+      </c>
+      <c r="F51" t="n">
+        <v>113</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -674,19 +1963,1325 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="n">
-        <v>3877</v>
+        <v>4152</v>
       </c>
       <c r="E9" t="n">
-        <v>87.63</v>
+        <v>88.56</v>
       </c>
       <c r="F9" t="n">
         <v>344</v>
       </c>
       <c r="G9" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lieselotte</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3049</v>
+      </c>
+      <c r="E10" t="n">
+        <v>95.58</v>
+      </c>
+      <c r="F10" t="n">
+        <v>260</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>monkeydluffy3u4</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2899</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.01000000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>476</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>picnun3</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2503</v>
+      </c>
+      <c r="E12" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="F12" t="n">
+        <v>139</v>
+      </c>
+      <c r="G12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MgerSy</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2134</v>
+      </c>
+      <c r="E13" t="n">
+        <v>91.18000000000001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1090</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>oaboctor</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>6</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2117</v>
+      </c>
+      <c r="E14" t="n">
+        <v>87.56999999999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>270</v>
+      </c>
+      <c r="G14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>naxxx</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>6</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1992</v>
+      </c>
+      <c r="E15" t="n">
+        <v>86.37</v>
+      </c>
+      <c r="F15" t="n">
+        <v>339</v>
+      </c>
+      <c r="G15" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Kolaa</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>6</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1847</v>
+      </c>
+      <c r="E16" t="n">
+        <v>82.93000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>126</v>
+      </c>
+      <c r="G16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
         <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M-Reimu</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1685</v>
+      </c>
+      <c r="E17" t="n">
+        <v>84.16</v>
+      </c>
+      <c r="F17" t="n">
+        <v>219</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Xhs</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1678</v>
+      </c>
+      <c r="E18" t="n">
+        <v>83.81</v>
+      </c>
+      <c r="F18" t="n">
+        <v>167</v>
+      </c>
+      <c r="G18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Takumi_Matsuo</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1577</v>
+      </c>
+      <c r="E19" t="n">
+        <v>86.41</v>
+      </c>
+      <c r="F19" t="n">
+        <v>229</v>
+      </c>
+      <c r="G19" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>cai_lw</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1576</v>
+      </c>
+      <c r="E20" t="n">
+        <v>90.02</v>
+      </c>
+      <c r="F20" t="n">
+        <v>275</v>
+      </c>
+      <c r="G20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ilusions4</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1536</v>
+      </c>
+      <c r="E21" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="F21" t="n">
+        <v>473</v>
+      </c>
+      <c r="G21" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>kuerhaocai</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1397</v>
+      </c>
+      <c r="E22" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>276</v>
+      </c>
+      <c r="G22" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>brooster</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1266</v>
+      </c>
+      <c r="E23" t="n">
+        <v>88.94</v>
+      </c>
+      <c r="F23" t="n">
+        <v>201</v>
+      </c>
+      <c r="G23" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>minamiP</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1167</v>
+      </c>
+      <c r="E24" t="n">
+        <v>86.95999999999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>198</v>
+      </c>
+      <c r="G24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2005512s</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1165</v>
+      </c>
+      <c r="E25" t="n">
+        <v>88.69</v>
+      </c>
+      <c r="F25" t="n">
+        <v>229</v>
+      </c>
+      <c r="G25" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FA_MuLan</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E26" t="n">
+        <v>93.11</v>
+      </c>
+      <c r="F26" t="n">
+        <v>473</v>
+      </c>
+      <c r="G26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>kickster29</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>4</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1066</v>
+      </c>
+      <c r="E27" t="n">
+        <v>87.28</v>
+      </c>
+      <c r="F27" t="n">
+        <v>79</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Beth66</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>4</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1063</v>
+      </c>
+      <c r="E28" t="n">
+        <v>84.13</v>
+      </c>
+      <c r="F28" t="n">
+        <v>76</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>4</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1017</v>
+      </c>
+      <c r="E29" t="n">
+        <v>78.83</v>
+      </c>
+      <c r="F29" t="n">
+        <v>76</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Markes_D</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>4</v>
+      </c>
+      <c r="D30" t="n">
+        <v>997</v>
+      </c>
+      <c r="E30" t="n">
+        <v>92.20999999999999</v>
+      </c>
+      <c r="F30" t="n">
+        <v>226</v>
+      </c>
+      <c r="G30" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rustbell</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>4</v>
+      </c>
+      <c r="D31" t="n">
+        <v>986</v>
+      </c>
+      <c r="E31" t="n">
+        <v>93.52</v>
+      </c>
+      <c r="F31" t="n">
+        <v>665</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SQkun</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>866</v>
+      </c>
+      <c r="E32" t="n">
+        <v>86.53</v>
+      </c>
+      <c r="F32" t="n">
+        <v>148</v>
+      </c>
+      <c r="G32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DURAGONMO</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>3</v>
+      </c>
+      <c r="D33" t="n">
+        <v>842</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>238</v>
+      </c>
+      <c r="G33" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>00freeze00</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>829</v>
+      </c>
+      <c r="E34" t="n">
+        <v>85.84999999999999</v>
+      </c>
+      <c r="F34" t="n">
+        <v>113</v>
+      </c>
+      <c r="G34" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>LIGHT_MG</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>3</v>
+      </c>
+      <c r="D35" t="n">
+        <v>810</v>
+      </c>
+      <c r="E35" t="n">
+        <v>74.69</v>
+      </c>
+      <c r="F35" t="n">
+        <v>87</v>
+      </c>
+      <c r="G35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Taldeus</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>3</v>
+      </c>
+      <c r="D36" t="n">
+        <v>804</v>
+      </c>
+      <c r="E36" t="n">
+        <v>93.54000000000001</v>
+      </c>
+      <c r="F36" t="n">
+        <v>254</v>
+      </c>
+      <c r="G36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BANIP</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>3</v>
+      </c>
+      <c r="D37" t="n">
+        <v>797</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>98</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>_MASA</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>3</v>
+      </c>
+      <c r="D38" t="n">
+        <v>780</v>
+      </c>
+      <c r="E38" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="F38" t="n">
+        <v>180</v>
+      </c>
+      <c r="G38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>dtlnor</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>3</v>
+      </c>
+      <c r="D39" t="n">
+        <v>743</v>
+      </c>
+      <c r="E39" t="n">
+        <v>93.37</v>
+      </c>
+      <c r="F39" t="n">
+        <v>284</v>
+      </c>
+      <c r="G39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>miznejun</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>3</v>
+      </c>
+      <c r="D40" t="n">
+        <v>695</v>
+      </c>
+      <c r="E40" t="n">
+        <v>91.77</v>
+      </c>
+      <c r="F40" t="n">
+        <v>286</v>
+      </c>
+      <c r="G40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ChocolaNeko</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>3</v>
+      </c>
+      <c r="D41" t="n">
+        <v>693</v>
+      </c>
+      <c r="E41" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="F41" t="n">
+        <v>195</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Dora</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>3</v>
+      </c>
+      <c r="D42" t="n">
+        <v>658</v>
+      </c>
+      <c r="E42" t="n">
+        <v>83.28</v>
+      </c>
+      <c r="F42" t="n">
+        <v>187</v>
+      </c>
+      <c r="G42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>bocumamon</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>596</v>
+      </c>
+      <c r="E43" t="n">
+        <v>90.61</v>
+      </c>
+      <c r="F43" t="n">
+        <v>138</v>
+      </c>
+      <c r="G43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Rosebox</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>2</v>
+      </c>
+      <c r="D44" t="n">
+        <v>585</v>
+      </c>
+      <c r="E44" t="n">
+        <v>88.06999999999999</v>
+      </c>
+      <c r="F44" t="n">
+        <v>142</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ts_s_owl</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>557</v>
+      </c>
+      <c r="E45" t="n">
+        <v>94.27</v>
+      </c>
+      <c r="F45" t="n">
+        <v>560</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Thin76573</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>2</v>
+      </c>
+      <c r="D46" t="n">
+        <v>534</v>
+      </c>
+      <c r="E46" t="n">
+        <v>80.59</v>
+      </c>
+      <c r="F46" t="n">
+        <v>124</v>
+      </c>
+      <c r="G46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Azami_minase</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2</v>
+      </c>
+      <c r="D47" t="n">
+        <v>502</v>
+      </c>
+      <c r="E47" t="n">
+        <v>88.84</v>
+      </c>
+      <c r="F47" t="n">
+        <v>191</v>
+      </c>
+      <c r="G47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Thasyka</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>492</v>
+      </c>
+      <c r="E48" t="n">
+        <v>86.56</v>
+      </c>
+      <c r="F48" t="n">
+        <v>181</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>2</v>
+      </c>
+      <c r="D49" t="n">
+        <v>470</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>417</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TY-2</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>470</v>
+      </c>
+      <c r="E50" t="n">
+        <v>90.06</v>
+      </c>
+      <c r="F50" t="n">
+        <v>83</v>
+      </c>
+      <c r="G50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>nbdzxa</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D51" t="n">
+        <v>464</v>
+      </c>
+      <c r="E51" t="n">
+        <v>80.16</v>
+      </c>
+      <c r="F51" t="n">
+        <v>113</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AnnyQueen</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21233</v>
+      </c>
+      <c r="E2" t="n">
+        <v>95.39</v>
+      </c>
+      <c r="F2" t="n">
+        <v>751</v>
+      </c>
+      <c r="G2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Puppy</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12792</v>
+      </c>
+      <c r="E3" t="n">
+        <v>85.77</v>
+      </c>
+      <c r="F3" t="n">
+        <v>298</v>
+      </c>
+      <c r="G3" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>leqek</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12751</v>
+      </c>
+      <c r="E4" t="n">
+        <v>92.31</v>
+      </c>
+      <c r="F4" t="n">
+        <v>748</v>
+      </c>
+      <c r="G4" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aki</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8704</v>
+      </c>
+      <c r="E5" t="n">
+        <v>99.06</v>
+      </c>
+      <c r="F5" t="n">
+        <v>600</v>
+      </c>
+      <c r="G5" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PHiZER</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5122</v>
+      </c>
+      <c r="E6" t="n">
+        <v>90.47</v>
+      </c>
+      <c r="F6" t="n">
+        <v>473</v>
+      </c>
+      <c r="G6" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HXJ_ConveX</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4575</v>
+      </c>
+      <c r="E7" t="n">
+        <v>95.75</v>
+      </c>
+      <c r="F7" t="n">
+        <v>473</v>
+      </c>
+      <c r="G7" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>schliazterra</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4337</v>
+      </c>
+      <c r="E8" t="n">
+        <v>94.45</v>
+      </c>
+      <c r="F8" t="n">
+        <v>473</v>
+      </c>
+      <c r="G8" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>123ABC456789</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4251</v>
+      </c>
+      <c r="E9" t="n">
+        <v>88.81</v>
+      </c>
+      <c r="F9" t="n">
+        <v>545</v>
+      </c>
+      <c r="G9" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="10">

--- a/mode2.xlsx
+++ b/mode2.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-06-05_00-16" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-07-31_17-45" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-07-31_20-58" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4337,4 +4338,22 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/mode2.xlsx
+++ b/mode2.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-07-31_17-45" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-07-31_20-58" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-10-08_13-40" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4356,4 +4357,1565 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>player_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AnnyQueen</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3897</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21233</v>
+      </c>
+      <c r="F2" t="n">
+        <v>95.39</v>
+      </c>
+      <c r="G2" t="n">
+        <v>751</v>
+      </c>
+      <c r="H2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Puppy</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>15354</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>17</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12792</v>
+      </c>
+      <c r="F3" t="n">
+        <v>85.77</v>
+      </c>
+      <c r="G3" t="n">
+        <v>298</v>
+      </c>
+      <c r="H3" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>leqek</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2062</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12751</v>
+      </c>
+      <c r="F4" t="n">
+        <v>92.31</v>
+      </c>
+      <c r="G4" t="n">
+        <v>748</v>
+      </c>
+      <c r="H4" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aki</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>14</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8704</v>
+      </c>
+      <c r="F5" t="n">
+        <v>99.06</v>
+      </c>
+      <c r="G5" t="n">
+        <v>600</v>
+      </c>
+      <c r="H5" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PHiZER</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5122</v>
+      </c>
+      <c r="F6" t="n">
+        <v>90.47</v>
+      </c>
+      <c r="G6" t="n">
+        <v>473</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HXJ_ConveX</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>43231</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4575</v>
+      </c>
+      <c r="F7" t="n">
+        <v>95.75</v>
+      </c>
+      <c r="G7" t="n">
+        <v>473</v>
+      </c>
+      <c r="H7" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>schliazterra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10157</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4337</v>
+      </c>
+      <c r="F8" t="n">
+        <v>94.45</v>
+      </c>
+      <c r="G8" t="n">
+        <v>473</v>
+      </c>
+      <c r="H8" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>123ABC456789</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1087298</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4251</v>
+      </c>
+      <c r="F9" t="n">
+        <v>88.81</v>
+      </c>
+      <c r="G9" t="n">
+        <v>545</v>
+      </c>
+      <c r="H9" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lieselotte</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3049</v>
+      </c>
+      <c r="F10" t="n">
+        <v>95.58</v>
+      </c>
+      <c r="G10" t="n">
+        <v>260</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>monkeydluffy3u4</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>13962</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2899</v>
+      </c>
+      <c r="F11" t="n">
+        <v>94.01000000000001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>476</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>picnun3</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>27491</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2503</v>
+      </c>
+      <c r="F12" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="G12" t="n">
+        <v>139</v>
+      </c>
+      <c r="H12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MgerSy</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2134</v>
+      </c>
+      <c r="F13" t="n">
+        <v>91.18000000000001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1090</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>oaboctor</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>63210</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2117</v>
+      </c>
+      <c r="F14" t="n">
+        <v>87.56999999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>270</v>
+      </c>
+      <c r="H14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>naxxx</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1992</v>
+      </c>
+      <c r="F15" t="n">
+        <v>86.37</v>
+      </c>
+      <c r="G15" t="n">
+        <v>339</v>
+      </c>
+      <c r="H15" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Kolaa</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>102744</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1847</v>
+      </c>
+      <c r="F16" t="n">
+        <v>82.93000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>126</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M-Reimu</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1685</v>
+      </c>
+      <c r="F17" t="n">
+        <v>84.16</v>
+      </c>
+      <c r="G17" t="n">
+        <v>219</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Xhs</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>45759</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1678</v>
+      </c>
+      <c r="F18" t="n">
+        <v>83.81</v>
+      </c>
+      <c r="G18" t="n">
+        <v>167</v>
+      </c>
+      <c r="H18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Takumi_Matsuo</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>45091</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1577</v>
+      </c>
+      <c r="F19" t="n">
+        <v>86.41</v>
+      </c>
+      <c r="G19" t="n">
+        <v>229</v>
+      </c>
+      <c r="H19" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>cai_lw</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>25925</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1576</v>
+      </c>
+      <c r="F20" t="n">
+        <v>90.02</v>
+      </c>
+      <c r="G20" t="n">
+        <v>275</v>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ilusions4</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>54532</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1536</v>
+      </c>
+      <c r="F21" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="G21" t="n">
+        <v>473</v>
+      </c>
+      <c r="H21" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>kuerhaocai</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>34870</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1397</v>
+      </c>
+      <c r="F22" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="G22" t="n">
+        <v>276</v>
+      </c>
+      <c r="H22" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>brooster</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>46062</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1266</v>
+      </c>
+      <c r="F23" t="n">
+        <v>88.94</v>
+      </c>
+      <c r="G23" t="n">
+        <v>201</v>
+      </c>
+      <c r="H23" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>minamiP</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>44977</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1167</v>
+      </c>
+      <c r="F24" t="n">
+        <v>86.95999999999999</v>
+      </c>
+      <c r="G24" t="n">
+        <v>198</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2005512s</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3789</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1165</v>
+      </c>
+      <c r="F25" t="n">
+        <v>88.69</v>
+      </c>
+      <c r="G25" t="n">
+        <v>229</v>
+      </c>
+      <c r="H25" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FA_MuLan</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>28814</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F26" t="n">
+        <v>93.11</v>
+      </c>
+      <c r="G26" t="n">
+        <v>473</v>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>kickster29</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>17038</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>4</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1066</v>
+      </c>
+      <c r="F27" t="n">
+        <v>87.28</v>
+      </c>
+      <c r="G27" t="n">
+        <v>79</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Beth66</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>92096</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>4</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1063</v>
+      </c>
+      <c r="F28" t="n">
+        <v>84.13</v>
+      </c>
+      <c r="G28" t="n">
+        <v>76</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1425066</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1017</v>
+      </c>
+      <c r="F29" t="n">
+        <v>78.83</v>
+      </c>
+      <c r="G29" t="n">
+        <v>76</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Markes_D</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>57293</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>4</v>
+      </c>
+      <c r="E30" t="n">
+        <v>997</v>
+      </c>
+      <c r="F30" t="n">
+        <v>92.20999999999999</v>
+      </c>
+      <c r="G30" t="n">
+        <v>226</v>
+      </c>
+      <c r="H30" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rustbell</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" t="n">
+        <v>986</v>
+      </c>
+      <c r="F31" t="n">
+        <v>93.52</v>
+      </c>
+      <c r="G31" t="n">
+        <v>665</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SQkun</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>13094</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>866</v>
+      </c>
+      <c r="F32" t="n">
+        <v>86.53</v>
+      </c>
+      <c r="G32" t="n">
+        <v>148</v>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DURAGONMO</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>25088</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>842</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>238</v>
+      </c>
+      <c r="H33" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>00freeze00</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>36477</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>829</v>
+      </c>
+      <c r="F34" t="n">
+        <v>85.84999999999999</v>
+      </c>
+      <c r="G34" t="n">
+        <v>113</v>
+      </c>
+      <c r="H34" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>LIGHT_MG</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>85931</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>810</v>
+      </c>
+      <c r="F35" t="n">
+        <v>74.69</v>
+      </c>
+      <c r="G35" t="n">
+        <v>87</v>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Taldeus</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>8538</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" t="n">
+        <v>804</v>
+      </c>
+      <c r="F36" t="n">
+        <v>93.54000000000001</v>
+      </c>
+      <c r="G36" t="n">
+        <v>254</v>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BANIP</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4946</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" t="n">
+        <v>797</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>98</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>_MASA</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" t="n">
+        <v>780</v>
+      </c>
+      <c r="F38" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="G38" t="n">
+        <v>180</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>dtlnor</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="n">
+        <v>743</v>
+      </c>
+      <c r="F39" t="n">
+        <v>93.37</v>
+      </c>
+      <c r="G39" t="n">
+        <v>284</v>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>miznejun</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>38954</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" t="n">
+        <v>695</v>
+      </c>
+      <c r="F40" t="n">
+        <v>91.77</v>
+      </c>
+      <c r="G40" t="n">
+        <v>286</v>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ChocolaNeko</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1606</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" t="n">
+        <v>693</v>
+      </c>
+      <c r="F41" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="G41" t="n">
+        <v>195</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Dora</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>3</v>
+      </c>
+      <c r="E42" t="n">
+        <v>658</v>
+      </c>
+      <c r="F42" t="n">
+        <v>83.28</v>
+      </c>
+      <c r="G42" t="n">
+        <v>187</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>bocumamon</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>21104</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>596</v>
+      </c>
+      <c r="F43" t="n">
+        <v>90.61</v>
+      </c>
+      <c r="G43" t="n">
+        <v>138</v>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Rosebox</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>12508</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>2</v>
+      </c>
+      <c r="E44" t="n">
+        <v>585</v>
+      </c>
+      <c r="F44" t="n">
+        <v>88.06999999999999</v>
+      </c>
+      <c r="G44" t="n">
+        <v>142</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ts_s_owl</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>61449</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" t="n">
+        <v>557</v>
+      </c>
+      <c r="F45" t="n">
+        <v>94.27</v>
+      </c>
+      <c r="G45" t="n">
+        <v>560</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Thin76573</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>94016</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" t="n">
+        <v>534</v>
+      </c>
+      <c r="F46" t="n">
+        <v>80.59</v>
+      </c>
+      <c r="G46" t="n">
+        <v>124</v>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Azami_minase</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>84930</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>502</v>
+      </c>
+      <c r="F47" t="n">
+        <v>88.84</v>
+      </c>
+      <c r="G47" t="n">
+        <v>191</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Thasyka</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>86239</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>492</v>
+      </c>
+      <c r="F48" t="n">
+        <v>86.56</v>
+      </c>
+      <c r="G48" t="n">
+        <v>181</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>91365</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>2</v>
+      </c>
+      <c r="E49" t="n">
+        <v>470</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>417</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TY-2</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>39129</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" t="n">
+        <v>470</v>
+      </c>
+      <c r="F50" t="n">
+        <v>90.06</v>
+      </c>
+      <c r="G50" t="n">
+        <v>83</v>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>nbdzxa</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>2</v>
+      </c>
+      <c r="E51" t="n">
+        <v>464</v>
+      </c>
+      <c r="F51" t="n">
+        <v>80.16</v>
+      </c>
+      <c r="G51" t="n">
+        <v>113</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/mode2.xlsx
+++ b/mode2.xlsx
@@ -12,6 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-07-31_20-58" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-10-08_13-40" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-10-10_23-04" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5918,4 +5919,1310 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AnnyQueen</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21233</v>
+      </c>
+      <c r="E2" t="n">
+        <v>95.39</v>
+      </c>
+      <c r="F2" t="n">
+        <v>751</v>
+      </c>
+      <c r="G2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Puppy</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12792</v>
+      </c>
+      <c r="E3" t="n">
+        <v>85.77</v>
+      </c>
+      <c r="F3" t="n">
+        <v>298</v>
+      </c>
+      <c r="G3" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>leqek</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12751</v>
+      </c>
+      <c r="E4" t="n">
+        <v>92.31</v>
+      </c>
+      <c r="F4" t="n">
+        <v>748</v>
+      </c>
+      <c r="G4" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aki</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8704</v>
+      </c>
+      <c r="E5" t="n">
+        <v>99.06</v>
+      </c>
+      <c r="F5" t="n">
+        <v>600</v>
+      </c>
+      <c r="G5" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PHiZER</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5122</v>
+      </c>
+      <c r="E6" t="n">
+        <v>90.47</v>
+      </c>
+      <c r="F6" t="n">
+        <v>473</v>
+      </c>
+      <c r="G6" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HXJ_ConveX</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4575</v>
+      </c>
+      <c r="E7" t="n">
+        <v>95.75</v>
+      </c>
+      <c r="F7" t="n">
+        <v>473</v>
+      </c>
+      <c r="G7" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>schliazterra</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4337</v>
+      </c>
+      <c r="E8" t="n">
+        <v>94.45</v>
+      </c>
+      <c r="F8" t="n">
+        <v>473</v>
+      </c>
+      <c r="G8" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>123ABC456789</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4251</v>
+      </c>
+      <c r="E9" t="n">
+        <v>88.81</v>
+      </c>
+      <c r="F9" t="n">
+        <v>545</v>
+      </c>
+      <c r="G9" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lieselotte</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3049</v>
+      </c>
+      <c r="E10" t="n">
+        <v>95.58</v>
+      </c>
+      <c r="F10" t="n">
+        <v>260</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>monkeydluffy3u4</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2899</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.01000000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>476</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>picnun3</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2503</v>
+      </c>
+      <c r="E12" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="F12" t="n">
+        <v>139</v>
+      </c>
+      <c r="G12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MgerSy</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2134</v>
+      </c>
+      <c r="E13" t="n">
+        <v>91.18000000000001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1090</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>oaboctor</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>6</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2117</v>
+      </c>
+      <c r="E14" t="n">
+        <v>87.56999999999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>270</v>
+      </c>
+      <c r="G14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>naxxx</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>6</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1992</v>
+      </c>
+      <c r="E15" t="n">
+        <v>86.37</v>
+      </c>
+      <c r="F15" t="n">
+        <v>339</v>
+      </c>
+      <c r="G15" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Kolaa</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>6</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1847</v>
+      </c>
+      <c r="E16" t="n">
+        <v>82.93000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>126</v>
+      </c>
+      <c r="G16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M-Reimu</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1685</v>
+      </c>
+      <c r="E17" t="n">
+        <v>84.16</v>
+      </c>
+      <c r="F17" t="n">
+        <v>219</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Xhs</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1678</v>
+      </c>
+      <c r="E18" t="n">
+        <v>83.81</v>
+      </c>
+      <c r="F18" t="n">
+        <v>167</v>
+      </c>
+      <c r="G18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Takumi_Matsuo</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1577</v>
+      </c>
+      <c r="E19" t="n">
+        <v>86.41</v>
+      </c>
+      <c r="F19" t="n">
+        <v>229</v>
+      </c>
+      <c r="G19" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>cai_lw</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1576</v>
+      </c>
+      <c r="E20" t="n">
+        <v>90.02</v>
+      </c>
+      <c r="F20" t="n">
+        <v>275</v>
+      </c>
+      <c r="G20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ilusions4</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1536</v>
+      </c>
+      <c r="E21" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="F21" t="n">
+        <v>473</v>
+      </c>
+      <c r="G21" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>kuerhaocai</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1397</v>
+      </c>
+      <c r="E22" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>276</v>
+      </c>
+      <c r="G22" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>brooster</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1266</v>
+      </c>
+      <c r="E23" t="n">
+        <v>88.94</v>
+      </c>
+      <c r="F23" t="n">
+        <v>201</v>
+      </c>
+      <c r="G23" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>minamiP</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1167</v>
+      </c>
+      <c r="E24" t="n">
+        <v>86.95999999999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>198</v>
+      </c>
+      <c r="G24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2005512s</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1165</v>
+      </c>
+      <c r="E25" t="n">
+        <v>88.69</v>
+      </c>
+      <c r="F25" t="n">
+        <v>229</v>
+      </c>
+      <c r="G25" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FA_MuLan</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E26" t="n">
+        <v>93.11</v>
+      </c>
+      <c r="F26" t="n">
+        <v>473</v>
+      </c>
+      <c r="G26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>kickster29</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>4</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1066</v>
+      </c>
+      <c r="E27" t="n">
+        <v>87.28</v>
+      </c>
+      <c r="F27" t="n">
+        <v>79</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Beth66</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>4</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1063</v>
+      </c>
+      <c r="E28" t="n">
+        <v>84.13</v>
+      </c>
+      <c r="F28" t="n">
+        <v>76</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>4</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1017</v>
+      </c>
+      <c r="E29" t="n">
+        <v>78.83</v>
+      </c>
+      <c r="F29" t="n">
+        <v>76</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Markes_D</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>4</v>
+      </c>
+      <c r="D30" t="n">
+        <v>997</v>
+      </c>
+      <c r="E30" t="n">
+        <v>92.20999999999999</v>
+      </c>
+      <c r="F30" t="n">
+        <v>226</v>
+      </c>
+      <c r="G30" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rustbell</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>4</v>
+      </c>
+      <c r="D31" t="n">
+        <v>986</v>
+      </c>
+      <c r="E31" t="n">
+        <v>93.52</v>
+      </c>
+      <c r="F31" t="n">
+        <v>665</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SQkun</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>866</v>
+      </c>
+      <c r="E32" t="n">
+        <v>86.53</v>
+      </c>
+      <c r="F32" t="n">
+        <v>148</v>
+      </c>
+      <c r="G32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DURAGONMO</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>3</v>
+      </c>
+      <c r="D33" t="n">
+        <v>842</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>238</v>
+      </c>
+      <c r="G33" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>00freeze00</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>829</v>
+      </c>
+      <c r="E34" t="n">
+        <v>85.84999999999999</v>
+      </c>
+      <c r="F34" t="n">
+        <v>113</v>
+      </c>
+      <c r="G34" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>LIGHT_MG</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>3</v>
+      </c>
+      <c r="D35" t="n">
+        <v>810</v>
+      </c>
+      <c r="E35" t="n">
+        <v>74.69</v>
+      </c>
+      <c r="F35" t="n">
+        <v>87</v>
+      </c>
+      <c r="G35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Taldeus</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>3</v>
+      </c>
+      <c r="D36" t="n">
+        <v>804</v>
+      </c>
+      <c r="E36" t="n">
+        <v>93.54000000000001</v>
+      </c>
+      <c r="F36" t="n">
+        <v>254</v>
+      </c>
+      <c r="G36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BANIP</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>3</v>
+      </c>
+      <c r="D37" t="n">
+        <v>797</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>98</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>_MASA</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>3</v>
+      </c>
+      <c r="D38" t="n">
+        <v>780</v>
+      </c>
+      <c r="E38" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="F38" t="n">
+        <v>180</v>
+      </c>
+      <c r="G38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>dtlnor</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>3</v>
+      </c>
+      <c r="D39" t="n">
+        <v>743</v>
+      </c>
+      <c r="E39" t="n">
+        <v>93.37</v>
+      </c>
+      <c r="F39" t="n">
+        <v>284</v>
+      </c>
+      <c r="G39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>miznejun</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>3</v>
+      </c>
+      <c r="D40" t="n">
+        <v>695</v>
+      </c>
+      <c r="E40" t="n">
+        <v>91.77</v>
+      </c>
+      <c r="F40" t="n">
+        <v>286</v>
+      </c>
+      <c r="G40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ChocolaNeko</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>3</v>
+      </c>
+      <c r="D41" t="n">
+        <v>693</v>
+      </c>
+      <c r="E41" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="F41" t="n">
+        <v>195</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Dora</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>3</v>
+      </c>
+      <c r="D42" t="n">
+        <v>658</v>
+      </c>
+      <c r="E42" t="n">
+        <v>83.28</v>
+      </c>
+      <c r="F42" t="n">
+        <v>187</v>
+      </c>
+      <c r="G42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>bocumamon</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>596</v>
+      </c>
+      <c r="E43" t="n">
+        <v>90.61</v>
+      </c>
+      <c r="F43" t="n">
+        <v>138</v>
+      </c>
+      <c r="G43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Rosebox</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>2</v>
+      </c>
+      <c r="D44" t="n">
+        <v>585</v>
+      </c>
+      <c r="E44" t="n">
+        <v>88.06999999999999</v>
+      </c>
+      <c r="F44" t="n">
+        <v>142</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ts_s_owl</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>557</v>
+      </c>
+      <c r="E45" t="n">
+        <v>94.27</v>
+      </c>
+      <c r="F45" t="n">
+        <v>560</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Thin76573</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>2</v>
+      </c>
+      <c r="D46" t="n">
+        <v>534</v>
+      </c>
+      <c r="E46" t="n">
+        <v>80.59</v>
+      </c>
+      <c r="F46" t="n">
+        <v>124</v>
+      </c>
+      <c r="G46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Azami_minase</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2</v>
+      </c>
+      <c r="D47" t="n">
+        <v>502</v>
+      </c>
+      <c r="E47" t="n">
+        <v>88.84</v>
+      </c>
+      <c r="F47" t="n">
+        <v>191</v>
+      </c>
+      <c r="G47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Thasyka</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>492</v>
+      </c>
+      <c r="E48" t="n">
+        <v>86.56</v>
+      </c>
+      <c r="F48" t="n">
+        <v>181</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>2</v>
+      </c>
+      <c r="D49" t="n">
+        <v>470</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>417</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TY-2</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>470</v>
+      </c>
+      <c r="E50" t="n">
+        <v>90.06</v>
+      </c>
+      <c r="F50" t="n">
+        <v>83</v>
+      </c>
+      <c r="G50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>nbdzxa</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D51" t="n">
+        <v>464</v>
+      </c>
+      <c r="E51" t="n">
+        <v>80.16</v>
+      </c>
+      <c r="F51" t="n">
+        <v>113</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/mode2.xlsx
+++ b/mode2.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-06-05_00-16" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-07-31_17-45" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-07-31_20-58" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-10-08_13-40" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-10-10_23-04" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="mode_2_2025-06-05_00-16" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="mode_2_2025-07-31_17-45" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="mode_2_2025-07-31_20-58" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="mode_2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="mode_2_2025-10-08_13-40" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="mode_2_2025-10-10_23-04" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="mode_2_2025-10-28_18-59" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7225,4 +7226,1565 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>player_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AnnyQueen</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3897</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21233</v>
+      </c>
+      <c r="F2" t="n">
+        <v>95.39</v>
+      </c>
+      <c r="G2" t="n">
+        <v>751</v>
+      </c>
+      <c r="H2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Puppy</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>15354</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>17</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12792</v>
+      </c>
+      <c r="F3" t="n">
+        <v>85.77</v>
+      </c>
+      <c r="G3" t="n">
+        <v>298</v>
+      </c>
+      <c r="H3" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>leqek</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2062</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12751</v>
+      </c>
+      <c r="F4" t="n">
+        <v>92.31</v>
+      </c>
+      <c r="G4" t="n">
+        <v>748</v>
+      </c>
+      <c r="H4" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aki</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>14</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8704</v>
+      </c>
+      <c r="F5" t="n">
+        <v>99.06</v>
+      </c>
+      <c r="G5" t="n">
+        <v>600</v>
+      </c>
+      <c r="H5" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PHiZER</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5122</v>
+      </c>
+      <c r="F6" t="n">
+        <v>90.47</v>
+      </c>
+      <c r="G6" t="n">
+        <v>473</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HXJ_ConveX</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>43231</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4575</v>
+      </c>
+      <c r="F7" t="n">
+        <v>95.75</v>
+      </c>
+      <c r="G7" t="n">
+        <v>473</v>
+      </c>
+      <c r="H7" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>schliazterra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10157</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4337</v>
+      </c>
+      <c r="F8" t="n">
+        <v>94.45</v>
+      </c>
+      <c r="G8" t="n">
+        <v>473</v>
+      </c>
+      <c r="H8" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>123ABC456789</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1087298</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4251</v>
+      </c>
+      <c r="F9" t="n">
+        <v>88.81</v>
+      </c>
+      <c r="G9" t="n">
+        <v>545</v>
+      </c>
+      <c r="H9" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lieselotte</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3049</v>
+      </c>
+      <c r="F10" t="n">
+        <v>95.58</v>
+      </c>
+      <c r="G10" t="n">
+        <v>260</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>monkeydluffy3u4</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>13962</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2899</v>
+      </c>
+      <c r="F11" t="n">
+        <v>94.01000000000001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>476</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>picnun3</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>27491</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2503</v>
+      </c>
+      <c r="F12" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="G12" t="n">
+        <v>139</v>
+      </c>
+      <c r="H12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MgerSy</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2134</v>
+      </c>
+      <c r="F13" t="n">
+        <v>91.18000000000001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1090</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>oaboctor</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>63210</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2117</v>
+      </c>
+      <c r="F14" t="n">
+        <v>87.56999999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>270</v>
+      </c>
+      <c r="H14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>naxxx</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1992</v>
+      </c>
+      <c r="F15" t="n">
+        <v>86.37</v>
+      </c>
+      <c r="G15" t="n">
+        <v>339</v>
+      </c>
+      <c r="H15" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Kolaa</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>102744</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1847</v>
+      </c>
+      <c r="F16" t="n">
+        <v>82.93000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>126</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M-Reimu</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1685</v>
+      </c>
+      <c r="F17" t="n">
+        <v>84.16</v>
+      </c>
+      <c r="G17" t="n">
+        <v>219</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Xhs</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>45759</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1678</v>
+      </c>
+      <c r="F18" t="n">
+        <v>83.81</v>
+      </c>
+      <c r="G18" t="n">
+        <v>167</v>
+      </c>
+      <c r="H18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Takumi_Matsuo</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>45091</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1577</v>
+      </c>
+      <c r="F19" t="n">
+        <v>86.41</v>
+      </c>
+      <c r="G19" t="n">
+        <v>229</v>
+      </c>
+      <c r="H19" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>cai_lw</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>25925</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1576</v>
+      </c>
+      <c r="F20" t="n">
+        <v>90.02</v>
+      </c>
+      <c r="G20" t="n">
+        <v>275</v>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ilusions4</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>54532</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1536</v>
+      </c>
+      <c r="F21" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="G21" t="n">
+        <v>473</v>
+      </c>
+      <c r="H21" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>kuerhaocai</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>34870</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1397</v>
+      </c>
+      <c r="F22" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="G22" t="n">
+        <v>276</v>
+      </c>
+      <c r="H22" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>brooster</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>46062</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1266</v>
+      </c>
+      <c r="F23" t="n">
+        <v>88.94</v>
+      </c>
+      <c r="G23" t="n">
+        <v>201</v>
+      </c>
+      <c r="H23" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>minamiP</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>44977</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1167</v>
+      </c>
+      <c r="F24" t="n">
+        <v>86.95999999999999</v>
+      </c>
+      <c r="G24" t="n">
+        <v>198</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2005512s</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3789</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1165</v>
+      </c>
+      <c r="F25" t="n">
+        <v>88.69</v>
+      </c>
+      <c r="G25" t="n">
+        <v>229</v>
+      </c>
+      <c r="H25" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FA_MuLan</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>28814</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F26" t="n">
+        <v>93.11</v>
+      </c>
+      <c r="G26" t="n">
+        <v>473</v>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>kickster29</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>17038</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>4</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1066</v>
+      </c>
+      <c r="F27" t="n">
+        <v>87.28</v>
+      </c>
+      <c r="G27" t="n">
+        <v>79</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Beth66</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>92096</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>4</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1063</v>
+      </c>
+      <c r="F28" t="n">
+        <v>84.13</v>
+      </c>
+      <c r="G28" t="n">
+        <v>76</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1425066</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1017</v>
+      </c>
+      <c r="F29" t="n">
+        <v>78.83</v>
+      </c>
+      <c r="G29" t="n">
+        <v>76</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Markes_D</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>57293</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>4</v>
+      </c>
+      <c r="E30" t="n">
+        <v>997</v>
+      </c>
+      <c r="F30" t="n">
+        <v>92.20999999999999</v>
+      </c>
+      <c r="G30" t="n">
+        <v>226</v>
+      </c>
+      <c r="H30" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rustbell</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" t="n">
+        <v>986</v>
+      </c>
+      <c r="F31" t="n">
+        <v>93.52</v>
+      </c>
+      <c r="G31" t="n">
+        <v>665</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SQkun</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>13094</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>866</v>
+      </c>
+      <c r="F32" t="n">
+        <v>86.53</v>
+      </c>
+      <c r="G32" t="n">
+        <v>148</v>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DURAGONMO</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>25088</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>842</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>238</v>
+      </c>
+      <c r="H33" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>00freeze00</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>36477</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>829</v>
+      </c>
+      <c r="F34" t="n">
+        <v>85.84999999999999</v>
+      </c>
+      <c r="G34" t="n">
+        <v>113</v>
+      </c>
+      <c r="H34" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>LIGHT_MG</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>85931</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>810</v>
+      </c>
+      <c r="F35" t="n">
+        <v>74.69</v>
+      </c>
+      <c r="G35" t="n">
+        <v>87</v>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Taldeus</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>8538</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" t="n">
+        <v>804</v>
+      </c>
+      <c r="F36" t="n">
+        <v>93.54000000000001</v>
+      </c>
+      <c r="G36" t="n">
+        <v>254</v>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BANIP</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4946</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" t="n">
+        <v>797</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>98</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>_MASA</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" t="n">
+        <v>780</v>
+      </c>
+      <c r="F38" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="G38" t="n">
+        <v>180</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>dtlnor</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="n">
+        <v>743</v>
+      </c>
+      <c r="F39" t="n">
+        <v>93.37</v>
+      </c>
+      <c r="G39" t="n">
+        <v>284</v>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>miznejun</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>38954</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" t="n">
+        <v>695</v>
+      </c>
+      <c r="F40" t="n">
+        <v>91.77</v>
+      </c>
+      <c r="G40" t="n">
+        <v>286</v>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ChocolaNeko</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1606</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" t="n">
+        <v>693</v>
+      </c>
+      <c r="F41" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="G41" t="n">
+        <v>195</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Dora</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>3</v>
+      </c>
+      <c r="E42" t="n">
+        <v>658</v>
+      </c>
+      <c r="F42" t="n">
+        <v>83.28</v>
+      </c>
+      <c r="G42" t="n">
+        <v>187</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>bocumamon</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>21104</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>596</v>
+      </c>
+      <c r="F43" t="n">
+        <v>90.61</v>
+      </c>
+      <c r="G43" t="n">
+        <v>138</v>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Rosebox</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>12508</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>2</v>
+      </c>
+      <c r="E44" t="n">
+        <v>585</v>
+      </c>
+      <c r="F44" t="n">
+        <v>88.06999999999999</v>
+      </c>
+      <c r="G44" t="n">
+        <v>142</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ts_s_owl</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>61449</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" t="n">
+        <v>557</v>
+      </c>
+      <c r="F45" t="n">
+        <v>94.27</v>
+      </c>
+      <c r="G45" t="n">
+        <v>560</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Thin76573</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>94016</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" t="n">
+        <v>534</v>
+      </c>
+      <c r="F46" t="n">
+        <v>80.59</v>
+      </c>
+      <c r="G46" t="n">
+        <v>124</v>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Azami_minase</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>84930</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>502</v>
+      </c>
+      <c r="F47" t="n">
+        <v>88.84</v>
+      </c>
+      <c r="G47" t="n">
+        <v>191</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Thasyka</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>86239</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>492</v>
+      </c>
+      <c r="F48" t="n">
+        <v>86.56</v>
+      </c>
+      <c r="G48" t="n">
+        <v>181</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>91365</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>2</v>
+      </c>
+      <c r="E49" t="n">
+        <v>470</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>417</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TY-2</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>39129</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" t="n">
+        <v>470</v>
+      </c>
+      <c r="F50" t="n">
+        <v>90.06</v>
+      </c>
+      <c r="G50" t="n">
+        <v>83</v>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>nbdzxa</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>2</v>
+      </c>
+      <c r="E51" t="n">
+        <v>464</v>
+      </c>
+      <c r="F51" t="n">
+        <v>80.16</v>
+      </c>
+      <c r="G51" t="n">
+        <v>113</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/mode2.xlsx
+++ b/mode2.xlsx
@@ -14,6 +14,7 @@
     <sheet name="mode_2_2025-10-08_13-40" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="mode_2_2025-10-10_23-04" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="mode_2_2025-10-28_18-59" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="mode_2_2025-10-29_20-39" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8787,4 +8788,1565 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>player_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AnnyQueen</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3897</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21233</v>
+      </c>
+      <c r="F2" t="n">
+        <v>95.39</v>
+      </c>
+      <c r="G2" t="n">
+        <v>751</v>
+      </c>
+      <c r="H2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Puppy</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>15354</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>17</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12792</v>
+      </c>
+      <c r="F3" t="n">
+        <v>85.77</v>
+      </c>
+      <c r="G3" t="n">
+        <v>298</v>
+      </c>
+      <c r="H3" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>leqek</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2062</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12751</v>
+      </c>
+      <c r="F4" t="n">
+        <v>92.31</v>
+      </c>
+      <c r="G4" t="n">
+        <v>748</v>
+      </c>
+      <c r="H4" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aki</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>14</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8704</v>
+      </c>
+      <c r="F5" t="n">
+        <v>99.06</v>
+      </c>
+      <c r="G5" t="n">
+        <v>600</v>
+      </c>
+      <c r="H5" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PHiZER</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5122</v>
+      </c>
+      <c r="F6" t="n">
+        <v>90.47</v>
+      </c>
+      <c r="G6" t="n">
+        <v>473</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HXJ_ConveX</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>43231</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4575</v>
+      </c>
+      <c r="F7" t="n">
+        <v>95.75</v>
+      </c>
+      <c r="G7" t="n">
+        <v>473</v>
+      </c>
+      <c r="H7" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>schliazterra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10157</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4337</v>
+      </c>
+      <c r="F8" t="n">
+        <v>94.45</v>
+      </c>
+      <c r="G8" t="n">
+        <v>473</v>
+      </c>
+      <c r="H8" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>123ABC456789</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1087298</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4251</v>
+      </c>
+      <c r="F9" t="n">
+        <v>88.81</v>
+      </c>
+      <c r="G9" t="n">
+        <v>545</v>
+      </c>
+      <c r="H9" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lieselotte</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3049</v>
+      </c>
+      <c r="F10" t="n">
+        <v>95.58</v>
+      </c>
+      <c r="G10" t="n">
+        <v>260</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>monkeydluffy3u4</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>13962</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2899</v>
+      </c>
+      <c r="F11" t="n">
+        <v>94.01000000000001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>476</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>picnun3</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>27491</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2503</v>
+      </c>
+      <c r="F12" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="G12" t="n">
+        <v>139</v>
+      </c>
+      <c r="H12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MgerSy</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2134</v>
+      </c>
+      <c r="F13" t="n">
+        <v>91.18000000000001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1090</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>oaboctor</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>63210</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2117</v>
+      </c>
+      <c r="F14" t="n">
+        <v>87.56999999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>270</v>
+      </c>
+      <c r="H14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>naxxx</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1992</v>
+      </c>
+      <c r="F15" t="n">
+        <v>86.37</v>
+      </c>
+      <c r="G15" t="n">
+        <v>339</v>
+      </c>
+      <c r="H15" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Kolaa</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>102744</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1847</v>
+      </c>
+      <c r="F16" t="n">
+        <v>82.93000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>126</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M-Reimu</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1685</v>
+      </c>
+      <c r="F17" t="n">
+        <v>84.16</v>
+      </c>
+      <c r="G17" t="n">
+        <v>219</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Xhs</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>45759</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1678</v>
+      </c>
+      <c r="F18" t="n">
+        <v>83.81</v>
+      </c>
+      <c r="G18" t="n">
+        <v>167</v>
+      </c>
+      <c r="H18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Takumi_Matsuo</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>45091</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1577</v>
+      </c>
+      <c r="F19" t="n">
+        <v>86.41</v>
+      </c>
+      <c r="G19" t="n">
+        <v>229</v>
+      </c>
+      <c r="H19" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>cai_lw</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>25925</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1576</v>
+      </c>
+      <c r="F20" t="n">
+        <v>90.02</v>
+      </c>
+      <c r="G20" t="n">
+        <v>275</v>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ilusions4</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>54532</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1536</v>
+      </c>
+      <c r="F21" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="G21" t="n">
+        <v>473</v>
+      </c>
+      <c r="H21" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>kuerhaocai</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>34870</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1397</v>
+      </c>
+      <c r="F22" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="G22" t="n">
+        <v>276</v>
+      </c>
+      <c r="H22" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>brooster</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>46062</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1266</v>
+      </c>
+      <c r="F23" t="n">
+        <v>88.94</v>
+      </c>
+      <c r="G23" t="n">
+        <v>201</v>
+      </c>
+      <c r="H23" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>minamiP</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>44977</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1167</v>
+      </c>
+      <c r="F24" t="n">
+        <v>86.95999999999999</v>
+      </c>
+      <c r="G24" t="n">
+        <v>198</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2005512s</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3789</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1165</v>
+      </c>
+      <c r="F25" t="n">
+        <v>88.69</v>
+      </c>
+      <c r="G25" t="n">
+        <v>229</v>
+      </c>
+      <c r="H25" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FA_MuLan</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>28814</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F26" t="n">
+        <v>93.11</v>
+      </c>
+      <c r="G26" t="n">
+        <v>473</v>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>kickster29</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>17038</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>4</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1066</v>
+      </c>
+      <c r="F27" t="n">
+        <v>87.28</v>
+      </c>
+      <c r="G27" t="n">
+        <v>79</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Beth66</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>92096</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>4</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1063</v>
+      </c>
+      <c r="F28" t="n">
+        <v>84.13</v>
+      </c>
+      <c r="G28" t="n">
+        <v>76</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1425066</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1017</v>
+      </c>
+      <c r="F29" t="n">
+        <v>78.83</v>
+      </c>
+      <c r="G29" t="n">
+        <v>76</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Markes_D</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>57293</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>4</v>
+      </c>
+      <c r="E30" t="n">
+        <v>997</v>
+      </c>
+      <c r="F30" t="n">
+        <v>92.20999999999999</v>
+      </c>
+      <c r="G30" t="n">
+        <v>226</v>
+      </c>
+      <c r="H30" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rustbell</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" t="n">
+        <v>986</v>
+      </c>
+      <c r="F31" t="n">
+        <v>93.52</v>
+      </c>
+      <c r="G31" t="n">
+        <v>665</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SQkun</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>13094</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>866</v>
+      </c>
+      <c r="F32" t="n">
+        <v>86.53</v>
+      </c>
+      <c r="G32" t="n">
+        <v>148</v>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DURAGONMO</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>25088</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>842</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>238</v>
+      </c>
+      <c r="H33" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>00freeze00</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>36477</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>829</v>
+      </c>
+      <c r="F34" t="n">
+        <v>85.84999999999999</v>
+      </c>
+      <c r="G34" t="n">
+        <v>113</v>
+      </c>
+      <c r="H34" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>LIGHT_MG</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>85931</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>810</v>
+      </c>
+      <c r="F35" t="n">
+        <v>74.69</v>
+      </c>
+      <c r="G35" t="n">
+        <v>87</v>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Taldeus</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>8538</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" t="n">
+        <v>804</v>
+      </c>
+      <c r="F36" t="n">
+        <v>93.54000000000001</v>
+      </c>
+      <c r="G36" t="n">
+        <v>254</v>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BANIP</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4946</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" t="n">
+        <v>797</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>98</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>_MASA</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" t="n">
+        <v>780</v>
+      </c>
+      <c r="F38" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="G38" t="n">
+        <v>180</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>dtlnor</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="n">
+        <v>743</v>
+      </c>
+      <c r="F39" t="n">
+        <v>93.37</v>
+      </c>
+      <c r="G39" t="n">
+        <v>284</v>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>miznejun</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>38954</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" t="n">
+        <v>695</v>
+      </c>
+      <c r="F40" t="n">
+        <v>91.77</v>
+      </c>
+      <c r="G40" t="n">
+        <v>286</v>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ChocolaNeko</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1606</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" t="n">
+        <v>693</v>
+      </c>
+      <c r="F41" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="G41" t="n">
+        <v>195</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Dora</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>3</v>
+      </c>
+      <c r="E42" t="n">
+        <v>658</v>
+      </c>
+      <c r="F42" t="n">
+        <v>83.28</v>
+      </c>
+      <c r="G42" t="n">
+        <v>187</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>bocumamon</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>21104</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>596</v>
+      </c>
+      <c r="F43" t="n">
+        <v>90.61</v>
+      </c>
+      <c r="G43" t="n">
+        <v>138</v>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Rosebox</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>12508</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>2</v>
+      </c>
+      <c r="E44" t="n">
+        <v>585</v>
+      </c>
+      <c r="F44" t="n">
+        <v>88.06999999999999</v>
+      </c>
+      <c r="G44" t="n">
+        <v>142</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ts_s_owl</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>61449</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" t="n">
+        <v>557</v>
+      </c>
+      <c r="F45" t="n">
+        <v>94.27</v>
+      </c>
+      <c r="G45" t="n">
+        <v>560</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Thin76573</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>94016</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" t="n">
+        <v>534</v>
+      </c>
+      <c r="F46" t="n">
+        <v>80.59</v>
+      </c>
+      <c r="G46" t="n">
+        <v>124</v>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Azami_minase</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>84930</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>502</v>
+      </c>
+      <c r="F47" t="n">
+        <v>88.84</v>
+      </c>
+      <c r="G47" t="n">
+        <v>191</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Thasyka</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>86239</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>492</v>
+      </c>
+      <c r="F48" t="n">
+        <v>86.56</v>
+      </c>
+      <c r="G48" t="n">
+        <v>181</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>91365</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>2</v>
+      </c>
+      <c r="E49" t="n">
+        <v>470</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>417</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TY-2</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>39129</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" t="n">
+        <v>470</v>
+      </c>
+      <c r="F50" t="n">
+        <v>90.06</v>
+      </c>
+      <c r="G50" t="n">
+        <v>83</v>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>nbdzxa</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>2</v>
+      </c>
+      <c r="E51" t="n">
+        <v>464</v>
+      </c>
+      <c r="F51" t="n">
+        <v>80.16</v>
+      </c>
+      <c r="G51" t="n">
+        <v>113</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/mode2.xlsx
+++ b/mode2.xlsx
@@ -15,6 +15,7 @@
     <sheet name="mode_2_2025-10-10_23-04" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="mode_2_2025-10-28_18-59" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="mode_2_2025-10-29_20-39" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="mode_2_2025-10-30_18-27" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10349,4 +10350,1565 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>player_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AnnyQueen</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3897</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21233</v>
+      </c>
+      <c r="F2" t="n">
+        <v>95.39</v>
+      </c>
+      <c r="G2" t="n">
+        <v>751</v>
+      </c>
+      <c r="H2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Puppy</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>15354</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>17</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12792</v>
+      </c>
+      <c r="F3" t="n">
+        <v>85.77</v>
+      </c>
+      <c r="G3" t="n">
+        <v>298</v>
+      </c>
+      <c r="H3" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>leqek</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2062</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12751</v>
+      </c>
+      <c r="F4" t="n">
+        <v>92.31</v>
+      </c>
+      <c r="G4" t="n">
+        <v>748</v>
+      </c>
+      <c r="H4" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aki</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>14</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8704</v>
+      </c>
+      <c r="F5" t="n">
+        <v>99.06</v>
+      </c>
+      <c r="G5" t="n">
+        <v>600</v>
+      </c>
+      <c r="H5" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PHiZER</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5122</v>
+      </c>
+      <c r="F6" t="n">
+        <v>90.47</v>
+      </c>
+      <c r="G6" t="n">
+        <v>473</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HXJ_ConveX</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>43231</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4575</v>
+      </c>
+      <c r="F7" t="n">
+        <v>95.75</v>
+      </c>
+      <c r="G7" t="n">
+        <v>473</v>
+      </c>
+      <c r="H7" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>schliazterra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10157</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4337</v>
+      </c>
+      <c r="F8" t="n">
+        <v>94.45</v>
+      </c>
+      <c r="G8" t="n">
+        <v>473</v>
+      </c>
+      <c r="H8" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>123ABC456789</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1087298</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4251</v>
+      </c>
+      <c r="F9" t="n">
+        <v>88.81</v>
+      </c>
+      <c r="G9" t="n">
+        <v>545</v>
+      </c>
+      <c r="H9" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lieselotte</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3049</v>
+      </c>
+      <c r="F10" t="n">
+        <v>95.58</v>
+      </c>
+      <c r="G10" t="n">
+        <v>260</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>monkeydluffy3u4</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>13962</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2899</v>
+      </c>
+      <c r="F11" t="n">
+        <v>94.01000000000001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>476</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>picnun3</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>27491</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2503</v>
+      </c>
+      <c r="F12" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="G12" t="n">
+        <v>139</v>
+      </c>
+      <c r="H12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MgerSy</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2134</v>
+      </c>
+      <c r="F13" t="n">
+        <v>91.18000000000001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1090</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>oaboctor</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>63210</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2117</v>
+      </c>
+      <c r="F14" t="n">
+        <v>87.56999999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>270</v>
+      </c>
+      <c r="H14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>naxxx</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1992</v>
+      </c>
+      <c r="F15" t="n">
+        <v>86.37</v>
+      </c>
+      <c r="G15" t="n">
+        <v>339</v>
+      </c>
+      <c r="H15" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Kolaa</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>102744</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1847</v>
+      </c>
+      <c r="F16" t="n">
+        <v>82.93000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>126</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M-Reimu</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1685</v>
+      </c>
+      <c r="F17" t="n">
+        <v>84.16</v>
+      </c>
+      <c r="G17" t="n">
+        <v>219</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Xhs</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>45759</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1678</v>
+      </c>
+      <c r="F18" t="n">
+        <v>83.81</v>
+      </c>
+      <c r="G18" t="n">
+        <v>167</v>
+      </c>
+      <c r="H18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Takumi_Matsuo</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>45091</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1577</v>
+      </c>
+      <c r="F19" t="n">
+        <v>86.41</v>
+      </c>
+      <c r="G19" t="n">
+        <v>229</v>
+      </c>
+      <c r="H19" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>cai_lw</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>25925</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1576</v>
+      </c>
+      <c r="F20" t="n">
+        <v>90.02</v>
+      </c>
+      <c r="G20" t="n">
+        <v>275</v>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ilusions4</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>54532</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1536</v>
+      </c>
+      <c r="F21" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="G21" t="n">
+        <v>473</v>
+      </c>
+      <c r="H21" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>kuerhaocai</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>34870</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1397</v>
+      </c>
+      <c r="F22" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="G22" t="n">
+        <v>276</v>
+      </c>
+      <c r="H22" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>brooster</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>46062</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1266</v>
+      </c>
+      <c r="F23" t="n">
+        <v>88.94</v>
+      </c>
+      <c r="G23" t="n">
+        <v>201</v>
+      </c>
+      <c r="H23" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>minamiP</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>44977</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1167</v>
+      </c>
+      <c r="F24" t="n">
+        <v>86.95999999999999</v>
+      </c>
+      <c r="G24" t="n">
+        <v>198</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2005512s</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3789</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1165</v>
+      </c>
+      <c r="F25" t="n">
+        <v>88.69</v>
+      </c>
+      <c r="G25" t="n">
+        <v>229</v>
+      </c>
+      <c r="H25" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FA_MuLan</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>28814</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F26" t="n">
+        <v>93.11</v>
+      </c>
+      <c r="G26" t="n">
+        <v>473</v>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>kickster29</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>17038</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>4</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1066</v>
+      </c>
+      <c r="F27" t="n">
+        <v>87.28</v>
+      </c>
+      <c r="G27" t="n">
+        <v>79</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Beth66</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>92096</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>4</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1063</v>
+      </c>
+      <c r="F28" t="n">
+        <v>84.13</v>
+      </c>
+      <c r="G28" t="n">
+        <v>76</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1425066</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1017</v>
+      </c>
+      <c r="F29" t="n">
+        <v>78.83</v>
+      </c>
+      <c r="G29" t="n">
+        <v>76</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Markes_D</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>57293</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>4</v>
+      </c>
+      <c r="E30" t="n">
+        <v>997</v>
+      </c>
+      <c r="F30" t="n">
+        <v>92.20999999999999</v>
+      </c>
+      <c r="G30" t="n">
+        <v>226</v>
+      </c>
+      <c r="H30" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rustbell</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" t="n">
+        <v>986</v>
+      </c>
+      <c r="F31" t="n">
+        <v>93.52</v>
+      </c>
+      <c r="G31" t="n">
+        <v>665</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SQkun</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>13094</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>866</v>
+      </c>
+      <c r="F32" t="n">
+        <v>86.53</v>
+      </c>
+      <c r="G32" t="n">
+        <v>148</v>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DURAGONMO</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>25088</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>842</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>238</v>
+      </c>
+      <c r="H33" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>00freeze00</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>36477</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>829</v>
+      </c>
+      <c r="F34" t="n">
+        <v>85.84999999999999</v>
+      </c>
+      <c r="G34" t="n">
+        <v>113</v>
+      </c>
+      <c r="H34" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>LIGHT_MG</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>85931</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>810</v>
+      </c>
+      <c r="F35" t="n">
+        <v>74.69</v>
+      </c>
+      <c r="G35" t="n">
+        <v>87</v>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Taldeus</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>8538</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" t="n">
+        <v>804</v>
+      </c>
+      <c r="F36" t="n">
+        <v>93.54000000000001</v>
+      </c>
+      <c r="G36" t="n">
+        <v>254</v>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BANIP</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4946</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" t="n">
+        <v>797</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>98</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>_MASA</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" t="n">
+        <v>780</v>
+      </c>
+      <c r="F38" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="G38" t="n">
+        <v>180</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>dtlnor</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="n">
+        <v>743</v>
+      </c>
+      <c r="F39" t="n">
+        <v>93.37</v>
+      </c>
+      <c r="G39" t="n">
+        <v>284</v>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>miznejun</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>38954</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" t="n">
+        <v>695</v>
+      </c>
+      <c r="F40" t="n">
+        <v>91.77</v>
+      </c>
+      <c r="G40" t="n">
+        <v>286</v>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ChocolaNeko</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1606</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" t="n">
+        <v>693</v>
+      </c>
+      <c r="F41" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="G41" t="n">
+        <v>195</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Dora</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>3</v>
+      </c>
+      <c r="E42" t="n">
+        <v>658</v>
+      </c>
+      <c r="F42" t="n">
+        <v>83.28</v>
+      </c>
+      <c r="G42" t="n">
+        <v>187</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>bocumamon</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>21104</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>596</v>
+      </c>
+      <c r="F43" t="n">
+        <v>90.61</v>
+      </c>
+      <c r="G43" t="n">
+        <v>138</v>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Rosebox</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>12508</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>2</v>
+      </c>
+      <c r="E44" t="n">
+        <v>585</v>
+      </c>
+      <c r="F44" t="n">
+        <v>88.06999999999999</v>
+      </c>
+      <c r="G44" t="n">
+        <v>142</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ts_s_owl</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>61449</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" t="n">
+        <v>557</v>
+      </c>
+      <c r="F45" t="n">
+        <v>94.27</v>
+      </c>
+      <c r="G45" t="n">
+        <v>560</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Thin76573</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>94016</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" t="n">
+        <v>534</v>
+      </c>
+      <c r="F46" t="n">
+        <v>80.59</v>
+      </c>
+      <c r="G46" t="n">
+        <v>124</v>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Azami_minase</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>84930</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>502</v>
+      </c>
+      <c r="F47" t="n">
+        <v>88.84</v>
+      </c>
+      <c r="G47" t="n">
+        <v>191</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Thasyka</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>86239</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>492</v>
+      </c>
+      <c r="F48" t="n">
+        <v>86.56</v>
+      </c>
+      <c r="G48" t="n">
+        <v>181</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>91365</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>2</v>
+      </c>
+      <c r="E49" t="n">
+        <v>470</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>417</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TY-2</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>39129</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" t="n">
+        <v>470</v>
+      </c>
+      <c r="F50" t="n">
+        <v>90.06</v>
+      </c>
+      <c r="G50" t="n">
+        <v>83</v>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>nbdzxa</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>2</v>
+      </c>
+      <c r="E51" t="n">
+        <v>464</v>
+      </c>
+      <c r="F51" t="n">
+        <v>80.16</v>
+      </c>
+      <c r="G51" t="n">
+        <v>113</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/mode2.xlsx
+++ b/mode2.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="mode_2_2025-06-05_00-16" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="mode_2_2025-07-31_17-45" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="mode_2_2025-07-31_20-58" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="mode_2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="mode_2_2025-10-08_13-40" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="mode_2_2025-10-10_23-04" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="mode_2_2025-10-28_18-59" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="mode_2_2025-10-29_20-39" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="mode_2_2025-10-30_18-27" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-06-05_00-16" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-07-31_17-45" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-07-31_20-58" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-10-08_13-40" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-10-10_23-04" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-10-28_18-59" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-10-29_20-39" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-10-30_18-27" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-11-02_01-39" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1733,6 +1734,1567 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>player_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AnnyQueen</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3897</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21233</v>
+      </c>
+      <c r="F2" t="n">
+        <v>95.39</v>
+      </c>
+      <c r="G2" t="n">
+        <v>751</v>
+      </c>
+      <c r="H2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Puppy</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>15354</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>17</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12792</v>
+      </c>
+      <c r="F3" t="n">
+        <v>85.77</v>
+      </c>
+      <c r="G3" t="n">
+        <v>298</v>
+      </c>
+      <c r="H3" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>leqek</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2062</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12751</v>
+      </c>
+      <c r="F4" t="n">
+        <v>92.31</v>
+      </c>
+      <c r="G4" t="n">
+        <v>748</v>
+      </c>
+      <c r="H4" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aki</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>14</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8704</v>
+      </c>
+      <c r="F5" t="n">
+        <v>99.06</v>
+      </c>
+      <c r="G5" t="n">
+        <v>600</v>
+      </c>
+      <c r="H5" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PHiZER</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5122</v>
+      </c>
+      <c r="F6" t="n">
+        <v>90.47</v>
+      </c>
+      <c r="G6" t="n">
+        <v>473</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HXJ_ConveX</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>43231</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4575</v>
+      </c>
+      <c r="F7" t="n">
+        <v>95.75</v>
+      </c>
+      <c r="G7" t="n">
+        <v>473</v>
+      </c>
+      <c r="H7" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>schliazterra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10157</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4337</v>
+      </c>
+      <c r="F8" t="n">
+        <v>94.45</v>
+      </c>
+      <c r="G8" t="n">
+        <v>473</v>
+      </c>
+      <c r="H8" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>123ABC456789</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1087298</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4251</v>
+      </c>
+      <c r="F9" t="n">
+        <v>88.81</v>
+      </c>
+      <c r="G9" t="n">
+        <v>545</v>
+      </c>
+      <c r="H9" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lieselotte</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3049</v>
+      </c>
+      <c r="F10" t="n">
+        <v>95.58</v>
+      </c>
+      <c r="G10" t="n">
+        <v>260</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>monkeydluffy3u4</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>13962</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2899</v>
+      </c>
+      <c r="F11" t="n">
+        <v>94.01000000000001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>476</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>picnun3</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>27491</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2503</v>
+      </c>
+      <c r="F12" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="G12" t="n">
+        <v>139</v>
+      </c>
+      <c r="H12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MgerSy</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2134</v>
+      </c>
+      <c r="F13" t="n">
+        <v>91.18000000000001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1090</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>oaboctor</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>63210</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2117</v>
+      </c>
+      <c r="F14" t="n">
+        <v>87.56999999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>270</v>
+      </c>
+      <c r="H14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>naxxx</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1992</v>
+      </c>
+      <c r="F15" t="n">
+        <v>86.37</v>
+      </c>
+      <c r="G15" t="n">
+        <v>339</v>
+      </c>
+      <c r="H15" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Kolaa</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>102744</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1847</v>
+      </c>
+      <c r="F16" t="n">
+        <v>82.93000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>126</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M-Reimu</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1685</v>
+      </c>
+      <c r="F17" t="n">
+        <v>84.16</v>
+      </c>
+      <c r="G17" t="n">
+        <v>219</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Xhs</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>45759</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1678</v>
+      </c>
+      <c r="F18" t="n">
+        <v>83.81</v>
+      </c>
+      <c r="G18" t="n">
+        <v>167</v>
+      </c>
+      <c r="H18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Takumi_Matsuo</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>45091</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1577</v>
+      </c>
+      <c r="F19" t="n">
+        <v>86.41</v>
+      </c>
+      <c r="G19" t="n">
+        <v>229</v>
+      </c>
+      <c r="H19" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>cai_lw</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>25925</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1576</v>
+      </c>
+      <c r="F20" t="n">
+        <v>90.02</v>
+      </c>
+      <c r="G20" t="n">
+        <v>275</v>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ilusions4</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>54532</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1536</v>
+      </c>
+      <c r="F21" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="G21" t="n">
+        <v>473</v>
+      </c>
+      <c r="H21" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>kuerhaocai</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>34870</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1397</v>
+      </c>
+      <c r="F22" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="G22" t="n">
+        <v>276</v>
+      </c>
+      <c r="H22" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>brooster</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>46062</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1266</v>
+      </c>
+      <c r="F23" t="n">
+        <v>88.94</v>
+      </c>
+      <c r="G23" t="n">
+        <v>201</v>
+      </c>
+      <c r="H23" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>minamiP</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>44977</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1167</v>
+      </c>
+      <c r="F24" t="n">
+        <v>86.95999999999999</v>
+      </c>
+      <c r="G24" t="n">
+        <v>198</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2005512s</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3789</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1165</v>
+      </c>
+      <c r="F25" t="n">
+        <v>88.69</v>
+      </c>
+      <c r="G25" t="n">
+        <v>229</v>
+      </c>
+      <c r="H25" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FA_MuLan</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>28814</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F26" t="n">
+        <v>93.11</v>
+      </c>
+      <c r="G26" t="n">
+        <v>473</v>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>kickster29</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>17038</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>4</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1066</v>
+      </c>
+      <c r="F27" t="n">
+        <v>87.28</v>
+      </c>
+      <c r="G27" t="n">
+        <v>79</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Beth66</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>92096</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>4</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1063</v>
+      </c>
+      <c r="F28" t="n">
+        <v>84.13</v>
+      </c>
+      <c r="G28" t="n">
+        <v>76</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1425066</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1017</v>
+      </c>
+      <c r="F29" t="n">
+        <v>78.83</v>
+      </c>
+      <c r="G29" t="n">
+        <v>76</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Markes_D</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>57293</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>4</v>
+      </c>
+      <c r="E30" t="n">
+        <v>997</v>
+      </c>
+      <c r="F30" t="n">
+        <v>92.20999999999999</v>
+      </c>
+      <c r="G30" t="n">
+        <v>226</v>
+      </c>
+      <c r="H30" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rustbell</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" t="n">
+        <v>986</v>
+      </c>
+      <c r="F31" t="n">
+        <v>93.52</v>
+      </c>
+      <c r="G31" t="n">
+        <v>665</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SQkun</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>13094</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>866</v>
+      </c>
+      <c r="F32" t="n">
+        <v>86.53</v>
+      </c>
+      <c r="G32" t="n">
+        <v>148</v>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DURAGONMO</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>25088</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>842</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>238</v>
+      </c>
+      <c r="H33" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>00freeze00</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>36477</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>829</v>
+      </c>
+      <c r="F34" t="n">
+        <v>85.84999999999999</v>
+      </c>
+      <c r="G34" t="n">
+        <v>113</v>
+      </c>
+      <c r="H34" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>LIGHT_MG</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>85931</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>810</v>
+      </c>
+      <c r="F35" t="n">
+        <v>74.69</v>
+      </c>
+      <c r="G35" t="n">
+        <v>87</v>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Taldeus</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>8538</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" t="n">
+        <v>804</v>
+      </c>
+      <c r="F36" t="n">
+        <v>93.54000000000001</v>
+      </c>
+      <c r="G36" t="n">
+        <v>254</v>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BANIP</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4946</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" t="n">
+        <v>797</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>98</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>_MASA</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" t="n">
+        <v>780</v>
+      </c>
+      <c r="F38" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="G38" t="n">
+        <v>180</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>dtlnor</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="n">
+        <v>743</v>
+      </c>
+      <c r="F39" t="n">
+        <v>93.37</v>
+      </c>
+      <c r="G39" t="n">
+        <v>284</v>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>miznejun</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>38954</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" t="n">
+        <v>695</v>
+      </c>
+      <c r="F40" t="n">
+        <v>91.77</v>
+      </c>
+      <c r="G40" t="n">
+        <v>286</v>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ChocolaNeko</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1606</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" t="n">
+        <v>693</v>
+      </c>
+      <c r="F41" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="G41" t="n">
+        <v>195</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Dora</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>3</v>
+      </c>
+      <c r="E42" t="n">
+        <v>658</v>
+      </c>
+      <c r="F42" t="n">
+        <v>83.28</v>
+      </c>
+      <c r="G42" t="n">
+        <v>187</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>bocumamon</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>21104</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>596</v>
+      </c>
+      <c r="F43" t="n">
+        <v>90.61</v>
+      </c>
+      <c r="G43" t="n">
+        <v>138</v>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Rosebox</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>12508</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>2</v>
+      </c>
+      <c r="E44" t="n">
+        <v>585</v>
+      </c>
+      <c r="F44" t="n">
+        <v>88.06999999999999</v>
+      </c>
+      <c r="G44" t="n">
+        <v>142</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ts_s_owl</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>61449</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" t="n">
+        <v>557</v>
+      </c>
+      <c r="F45" t="n">
+        <v>94.27</v>
+      </c>
+      <c r="G45" t="n">
+        <v>560</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Thin76573</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>94016</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" t="n">
+        <v>534</v>
+      </c>
+      <c r="F46" t="n">
+        <v>80.59</v>
+      </c>
+      <c r="G46" t="n">
+        <v>124</v>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Azami_minase</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>84930</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>502</v>
+      </c>
+      <c r="F47" t="n">
+        <v>88.84</v>
+      </c>
+      <c r="G47" t="n">
+        <v>191</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Thasyka</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>86239</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>492</v>
+      </c>
+      <c r="F48" t="n">
+        <v>86.56</v>
+      </c>
+      <c r="G48" t="n">
+        <v>181</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>91365</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>2</v>
+      </c>
+      <c r="E49" t="n">
+        <v>470</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>417</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TY-2</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>39129</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" t="n">
+        <v>470</v>
+      </c>
+      <c r="F50" t="n">
+        <v>90.06</v>
+      </c>
+      <c r="G50" t="n">
+        <v>83</v>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>nbdzxa</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>2</v>
+      </c>
+      <c r="E51" t="n">
+        <v>464</v>
+      </c>
+      <c r="F51" t="n">
+        <v>80.16</v>
+      </c>
+      <c r="G51" t="n">
+        <v>113</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode2.xlsx
+++ b/mode2.xlsx
@@ -17,6 +17,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-10-29_20-39" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-10-30_18-27" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-11-02_01-39" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-11-02_18-24" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3295,6 +3296,1567 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>player_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AnnyQueen</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3897</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21233</v>
+      </c>
+      <c r="F2" t="n">
+        <v>95.39</v>
+      </c>
+      <c r="G2" t="n">
+        <v>751</v>
+      </c>
+      <c r="H2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Puppy</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>15354</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>17</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12792</v>
+      </c>
+      <c r="F3" t="n">
+        <v>85.77</v>
+      </c>
+      <c r="G3" t="n">
+        <v>298</v>
+      </c>
+      <c r="H3" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>leqek</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2062</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12751</v>
+      </c>
+      <c r="F4" t="n">
+        <v>92.31</v>
+      </c>
+      <c r="G4" t="n">
+        <v>748</v>
+      </c>
+      <c r="H4" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aki</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>14</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8704</v>
+      </c>
+      <c r="F5" t="n">
+        <v>99.06</v>
+      </c>
+      <c r="G5" t="n">
+        <v>600</v>
+      </c>
+      <c r="H5" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PHiZER</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5122</v>
+      </c>
+      <c r="F6" t="n">
+        <v>90.47</v>
+      </c>
+      <c r="G6" t="n">
+        <v>473</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HXJ_ConveX</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>43231</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4575</v>
+      </c>
+      <c r="F7" t="n">
+        <v>95.75</v>
+      </c>
+      <c r="G7" t="n">
+        <v>473</v>
+      </c>
+      <c r="H7" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>schliazterra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10157</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4337</v>
+      </c>
+      <c r="F8" t="n">
+        <v>94.45</v>
+      </c>
+      <c r="G8" t="n">
+        <v>473</v>
+      </c>
+      <c r="H8" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>123ABC456789</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1087298</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4251</v>
+      </c>
+      <c r="F9" t="n">
+        <v>88.81</v>
+      </c>
+      <c r="G9" t="n">
+        <v>545</v>
+      </c>
+      <c r="H9" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lieselotte</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3049</v>
+      </c>
+      <c r="F10" t="n">
+        <v>95.58</v>
+      </c>
+      <c r="G10" t="n">
+        <v>260</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>monkeydluffy3u4</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>13962</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2899</v>
+      </c>
+      <c r="F11" t="n">
+        <v>94.01000000000001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>476</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>picnun3</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>27491</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2503</v>
+      </c>
+      <c r="F12" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="G12" t="n">
+        <v>139</v>
+      </c>
+      <c r="H12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MgerSy</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2134</v>
+      </c>
+      <c r="F13" t="n">
+        <v>91.18000000000001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1090</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>oaboctor</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>63210</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2117</v>
+      </c>
+      <c r="F14" t="n">
+        <v>87.56999999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>270</v>
+      </c>
+      <c r="H14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>naxxx</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1992</v>
+      </c>
+      <c r="F15" t="n">
+        <v>86.37</v>
+      </c>
+      <c r="G15" t="n">
+        <v>339</v>
+      </c>
+      <c r="H15" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Kolaa</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>102744</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1847</v>
+      </c>
+      <c r="F16" t="n">
+        <v>82.93000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>126</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M-Reimu</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1685</v>
+      </c>
+      <c r="F17" t="n">
+        <v>84.16</v>
+      </c>
+      <c r="G17" t="n">
+        <v>219</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Xhs</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>45759</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1678</v>
+      </c>
+      <c r="F18" t="n">
+        <v>83.81</v>
+      </c>
+      <c r="G18" t="n">
+        <v>167</v>
+      </c>
+      <c r="H18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Takumi_Matsuo</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>45091</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1577</v>
+      </c>
+      <c r="F19" t="n">
+        <v>86.41</v>
+      </c>
+      <c r="G19" t="n">
+        <v>229</v>
+      </c>
+      <c r="H19" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>cai_lw</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>25925</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1576</v>
+      </c>
+      <c r="F20" t="n">
+        <v>90.02</v>
+      </c>
+      <c r="G20" t="n">
+        <v>275</v>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ilusions4</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>54532</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1536</v>
+      </c>
+      <c r="F21" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="G21" t="n">
+        <v>473</v>
+      </c>
+      <c r="H21" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>kuerhaocai</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>34870</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1397</v>
+      </c>
+      <c r="F22" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="G22" t="n">
+        <v>276</v>
+      </c>
+      <c r="H22" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>brooster</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>46062</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1266</v>
+      </c>
+      <c r="F23" t="n">
+        <v>88.94</v>
+      </c>
+      <c r="G23" t="n">
+        <v>201</v>
+      </c>
+      <c r="H23" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>minamiP</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>44977</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1167</v>
+      </c>
+      <c r="F24" t="n">
+        <v>86.95999999999999</v>
+      </c>
+      <c r="G24" t="n">
+        <v>198</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2005512s</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3789</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1165</v>
+      </c>
+      <c r="F25" t="n">
+        <v>88.69</v>
+      </c>
+      <c r="G25" t="n">
+        <v>229</v>
+      </c>
+      <c r="H25" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FA_MuLan</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>28814</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F26" t="n">
+        <v>93.11</v>
+      </c>
+      <c r="G26" t="n">
+        <v>473</v>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>kickster29</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>17038</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>4</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1066</v>
+      </c>
+      <c r="F27" t="n">
+        <v>87.28</v>
+      </c>
+      <c r="G27" t="n">
+        <v>79</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Beth66</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>92096</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>4</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1063</v>
+      </c>
+      <c r="F28" t="n">
+        <v>84.13</v>
+      </c>
+      <c r="G28" t="n">
+        <v>76</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1425066</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1017</v>
+      </c>
+      <c r="F29" t="n">
+        <v>78.83</v>
+      </c>
+      <c r="G29" t="n">
+        <v>76</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Markes_D</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>57293</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>4</v>
+      </c>
+      <c r="E30" t="n">
+        <v>997</v>
+      </c>
+      <c r="F30" t="n">
+        <v>92.20999999999999</v>
+      </c>
+      <c r="G30" t="n">
+        <v>226</v>
+      </c>
+      <c r="H30" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rustbell</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" t="n">
+        <v>986</v>
+      </c>
+      <c r="F31" t="n">
+        <v>93.52</v>
+      </c>
+      <c r="G31" t="n">
+        <v>665</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SQkun</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>13094</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>866</v>
+      </c>
+      <c r="F32" t="n">
+        <v>86.53</v>
+      </c>
+      <c r="G32" t="n">
+        <v>148</v>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DURAGONMO</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>25088</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>842</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>238</v>
+      </c>
+      <c r="H33" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>00freeze00</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>36477</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>829</v>
+      </c>
+      <c r="F34" t="n">
+        <v>85.84999999999999</v>
+      </c>
+      <c r="G34" t="n">
+        <v>113</v>
+      </c>
+      <c r="H34" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>LIGHT_MG</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>85931</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>810</v>
+      </c>
+      <c r="F35" t="n">
+        <v>74.69</v>
+      </c>
+      <c r="G35" t="n">
+        <v>87</v>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Taldeus</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>8538</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" t="n">
+        <v>804</v>
+      </c>
+      <c r="F36" t="n">
+        <v>93.54000000000001</v>
+      </c>
+      <c r="G36" t="n">
+        <v>254</v>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BANIP</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4946</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" t="n">
+        <v>797</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>98</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>_MASA</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" t="n">
+        <v>780</v>
+      </c>
+      <c r="F38" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="G38" t="n">
+        <v>180</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>dtlnor</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="n">
+        <v>743</v>
+      </c>
+      <c r="F39" t="n">
+        <v>93.37</v>
+      </c>
+      <c r="G39" t="n">
+        <v>284</v>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>miznejun</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>38954</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" t="n">
+        <v>695</v>
+      </c>
+      <c r="F40" t="n">
+        <v>91.77</v>
+      </c>
+      <c r="G40" t="n">
+        <v>286</v>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ChocolaNeko</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1606</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" t="n">
+        <v>693</v>
+      </c>
+      <c r="F41" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="G41" t="n">
+        <v>195</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Dora</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>3</v>
+      </c>
+      <c r="E42" t="n">
+        <v>658</v>
+      </c>
+      <c r="F42" t="n">
+        <v>83.28</v>
+      </c>
+      <c r="G42" t="n">
+        <v>187</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>bocumamon</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>21104</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>596</v>
+      </c>
+      <c r="F43" t="n">
+        <v>90.61</v>
+      </c>
+      <c r="G43" t="n">
+        <v>138</v>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Rosebox</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>12508</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>2</v>
+      </c>
+      <c r="E44" t="n">
+        <v>585</v>
+      </c>
+      <c r="F44" t="n">
+        <v>88.06999999999999</v>
+      </c>
+      <c r="G44" t="n">
+        <v>142</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ts_s_owl</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>61449</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" t="n">
+        <v>557</v>
+      </c>
+      <c r="F45" t="n">
+        <v>94.27</v>
+      </c>
+      <c r="G45" t="n">
+        <v>560</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Thin76573</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>94016</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" t="n">
+        <v>534</v>
+      </c>
+      <c r="F46" t="n">
+        <v>80.59</v>
+      </c>
+      <c r="G46" t="n">
+        <v>124</v>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Azami_minase</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>84930</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>502</v>
+      </c>
+      <c r="F47" t="n">
+        <v>88.84</v>
+      </c>
+      <c r="G47" t="n">
+        <v>191</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Thasyka</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>86239</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>492</v>
+      </c>
+      <c r="F48" t="n">
+        <v>86.56</v>
+      </c>
+      <c r="G48" t="n">
+        <v>181</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>91365</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>2</v>
+      </c>
+      <c r="E49" t="n">
+        <v>470</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>417</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TY-2</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>39129</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" t="n">
+        <v>470</v>
+      </c>
+      <c r="F50" t="n">
+        <v>90.06</v>
+      </c>
+      <c r="G50" t="n">
+        <v>83</v>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>nbdzxa</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>2</v>
+      </c>
+      <c r="E51" t="n">
+        <v>464</v>
+      </c>
+      <c r="F51" t="n">
+        <v>80.16</v>
+      </c>
+      <c r="G51" t="n">
+        <v>113</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode2.xlsx
+++ b/mode2.xlsx
@@ -18,6 +18,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-10-30_18-27" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-11-02_01-39" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-11-02_18-24" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-11-02_18-57" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4857,6 +4858,1567 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>player_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AnnyQueen</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3897</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21233</v>
+      </c>
+      <c r="F2" t="n">
+        <v>95.39</v>
+      </c>
+      <c r="G2" t="n">
+        <v>751</v>
+      </c>
+      <c r="H2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Puppy</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>15354</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>17</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12792</v>
+      </c>
+      <c r="F3" t="n">
+        <v>85.77</v>
+      </c>
+      <c r="G3" t="n">
+        <v>298</v>
+      </c>
+      <c r="H3" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>leqek</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2062</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12751</v>
+      </c>
+      <c r="F4" t="n">
+        <v>92.31</v>
+      </c>
+      <c r="G4" t="n">
+        <v>748</v>
+      </c>
+      <c r="H4" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aki</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>14</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8704</v>
+      </c>
+      <c r="F5" t="n">
+        <v>99.06</v>
+      </c>
+      <c r="G5" t="n">
+        <v>600</v>
+      </c>
+      <c r="H5" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PHiZER</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5122</v>
+      </c>
+      <c r="F6" t="n">
+        <v>90.47</v>
+      </c>
+      <c r="G6" t="n">
+        <v>473</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HXJ_ConveX</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>43231</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4575</v>
+      </c>
+      <c r="F7" t="n">
+        <v>95.75</v>
+      </c>
+      <c r="G7" t="n">
+        <v>473</v>
+      </c>
+      <c r="H7" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>schliazterra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10157</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4337</v>
+      </c>
+      <c r="F8" t="n">
+        <v>94.45</v>
+      </c>
+      <c r="G8" t="n">
+        <v>473</v>
+      </c>
+      <c r="H8" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>123ABC456789</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1087298</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4251</v>
+      </c>
+      <c r="F9" t="n">
+        <v>88.81</v>
+      </c>
+      <c r="G9" t="n">
+        <v>545</v>
+      </c>
+      <c r="H9" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lieselotte</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3049</v>
+      </c>
+      <c r="F10" t="n">
+        <v>95.58</v>
+      </c>
+      <c r="G10" t="n">
+        <v>260</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>monkeydluffy3u4</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>13962</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2899</v>
+      </c>
+      <c r="F11" t="n">
+        <v>94.01000000000001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>476</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>picnun3</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>27491</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2503</v>
+      </c>
+      <c r="F12" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="G12" t="n">
+        <v>139</v>
+      </c>
+      <c r="H12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MgerSy</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2134</v>
+      </c>
+      <c r="F13" t="n">
+        <v>91.18000000000001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1090</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>oaboctor</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>63210</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2117</v>
+      </c>
+      <c r="F14" t="n">
+        <v>87.56999999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>270</v>
+      </c>
+      <c r="H14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>naxxx</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1992</v>
+      </c>
+      <c r="F15" t="n">
+        <v>86.37</v>
+      </c>
+      <c r="G15" t="n">
+        <v>339</v>
+      </c>
+      <c r="H15" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Kolaa</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>102744</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1847</v>
+      </c>
+      <c r="F16" t="n">
+        <v>82.93000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>126</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M-Reimu</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1685</v>
+      </c>
+      <c r="F17" t="n">
+        <v>84.16</v>
+      </c>
+      <c r="G17" t="n">
+        <v>219</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Xhs</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>45759</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1678</v>
+      </c>
+      <c r="F18" t="n">
+        <v>83.81</v>
+      </c>
+      <c r="G18" t="n">
+        <v>167</v>
+      </c>
+      <c r="H18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Takumi_Matsuo</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>45091</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1577</v>
+      </c>
+      <c r="F19" t="n">
+        <v>86.41</v>
+      </c>
+      <c r="G19" t="n">
+        <v>229</v>
+      </c>
+      <c r="H19" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>cai_lw</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>25925</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1576</v>
+      </c>
+      <c r="F20" t="n">
+        <v>90.02</v>
+      </c>
+      <c r="G20" t="n">
+        <v>275</v>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ilusions4</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>54532</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1536</v>
+      </c>
+      <c r="F21" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="G21" t="n">
+        <v>473</v>
+      </c>
+      <c r="H21" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>kuerhaocai</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>34870</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1397</v>
+      </c>
+      <c r="F22" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="G22" t="n">
+        <v>276</v>
+      </c>
+      <c r="H22" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>brooster</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>46062</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1266</v>
+      </c>
+      <c r="F23" t="n">
+        <v>88.94</v>
+      </c>
+      <c r="G23" t="n">
+        <v>201</v>
+      </c>
+      <c r="H23" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>minamiP</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>44977</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1167</v>
+      </c>
+      <c r="F24" t="n">
+        <v>86.95999999999999</v>
+      </c>
+      <c r="G24" t="n">
+        <v>198</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2005512s</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3789</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1165</v>
+      </c>
+      <c r="F25" t="n">
+        <v>88.69</v>
+      </c>
+      <c r="G25" t="n">
+        <v>229</v>
+      </c>
+      <c r="H25" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FA_MuLan</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>28814</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F26" t="n">
+        <v>93.11</v>
+      </c>
+      <c r="G26" t="n">
+        <v>473</v>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>kickster29</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>17038</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>4</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1066</v>
+      </c>
+      <c r="F27" t="n">
+        <v>87.28</v>
+      </c>
+      <c r="G27" t="n">
+        <v>79</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Beth66</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>92096</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>4</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1063</v>
+      </c>
+      <c r="F28" t="n">
+        <v>84.13</v>
+      </c>
+      <c r="G28" t="n">
+        <v>76</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1425066</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1017</v>
+      </c>
+      <c r="F29" t="n">
+        <v>78.83</v>
+      </c>
+      <c r="G29" t="n">
+        <v>76</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Markes_D</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>57293</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>4</v>
+      </c>
+      <c r="E30" t="n">
+        <v>997</v>
+      </c>
+      <c r="F30" t="n">
+        <v>92.20999999999999</v>
+      </c>
+      <c r="G30" t="n">
+        <v>226</v>
+      </c>
+      <c r="H30" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rustbell</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" t="n">
+        <v>986</v>
+      </c>
+      <c r="F31" t="n">
+        <v>93.52</v>
+      </c>
+      <c r="G31" t="n">
+        <v>665</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SQkun</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>13094</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>866</v>
+      </c>
+      <c r="F32" t="n">
+        <v>86.53</v>
+      </c>
+      <c r="G32" t="n">
+        <v>148</v>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DURAGONMO</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>25088</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>842</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>238</v>
+      </c>
+      <c r="H33" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>00freeze00</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>36477</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>829</v>
+      </c>
+      <c r="F34" t="n">
+        <v>85.84999999999999</v>
+      </c>
+      <c r="G34" t="n">
+        <v>113</v>
+      </c>
+      <c r="H34" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>LIGHT_MG</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>85931</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>810</v>
+      </c>
+      <c r="F35" t="n">
+        <v>74.69</v>
+      </c>
+      <c r="G35" t="n">
+        <v>87</v>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Taldeus</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>8538</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" t="n">
+        <v>804</v>
+      </c>
+      <c r="F36" t="n">
+        <v>93.54000000000001</v>
+      </c>
+      <c r="G36" t="n">
+        <v>254</v>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BANIP</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4946</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" t="n">
+        <v>797</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>98</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>_MASA</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" t="n">
+        <v>780</v>
+      </c>
+      <c r="F38" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="G38" t="n">
+        <v>180</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>dtlnor</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="n">
+        <v>743</v>
+      </c>
+      <c r="F39" t="n">
+        <v>93.37</v>
+      </c>
+      <c r="G39" t="n">
+        <v>284</v>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>miznejun</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>38954</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" t="n">
+        <v>695</v>
+      </c>
+      <c r="F40" t="n">
+        <v>91.77</v>
+      </c>
+      <c r="G40" t="n">
+        <v>286</v>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ChocolaNeko</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1606</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" t="n">
+        <v>693</v>
+      </c>
+      <c r="F41" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="G41" t="n">
+        <v>195</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Dora</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>3</v>
+      </c>
+      <c r="E42" t="n">
+        <v>658</v>
+      </c>
+      <c r="F42" t="n">
+        <v>83.28</v>
+      </c>
+      <c r="G42" t="n">
+        <v>187</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>bocumamon</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>21104</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>596</v>
+      </c>
+      <c r="F43" t="n">
+        <v>90.61</v>
+      </c>
+      <c r="G43" t="n">
+        <v>138</v>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Rosebox</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>12508</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>2</v>
+      </c>
+      <c r="E44" t="n">
+        <v>585</v>
+      </c>
+      <c r="F44" t="n">
+        <v>88.06999999999999</v>
+      </c>
+      <c r="G44" t="n">
+        <v>142</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ts_s_owl</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>61449</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" t="n">
+        <v>557</v>
+      </c>
+      <c r="F45" t="n">
+        <v>94.27</v>
+      </c>
+      <c r="G45" t="n">
+        <v>560</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Thin76573</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>94016</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" t="n">
+        <v>534</v>
+      </c>
+      <c r="F46" t="n">
+        <v>80.59</v>
+      </c>
+      <c r="G46" t="n">
+        <v>124</v>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Azami_minase</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>84930</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>502</v>
+      </c>
+      <c r="F47" t="n">
+        <v>88.84</v>
+      </c>
+      <c r="G47" t="n">
+        <v>191</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Thasyka</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>86239</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>492</v>
+      </c>
+      <c r="F48" t="n">
+        <v>86.56</v>
+      </c>
+      <c r="G48" t="n">
+        <v>181</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>91365</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>2</v>
+      </c>
+      <c r="E49" t="n">
+        <v>470</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>417</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TY-2</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>39129</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" t="n">
+        <v>470</v>
+      </c>
+      <c r="F50" t="n">
+        <v>90.06</v>
+      </c>
+      <c r="G50" t="n">
+        <v>83</v>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>nbdzxa</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>2</v>
+      </c>
+      <c r="E51" t="n">
+        <v>464</v>
+      </c>
+      <c r="F51" t="n">
+        <v>80.16</v>
+      </c>
+      <c r="G51" t="n">
+        <v>113</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode2.xlsx
+++ b/mode2.xlsx
@@ -19,6 +19,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-11-02_01-39" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-11-02_18-24" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-11-02_18-57" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-11-03_21-36" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6419,6 +6420,1567 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>player_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AnnyQueen</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3897</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21233</v>
+      </c>
+      <c r="F2" t="n">
+        <v>95.39</v>
+      </c>
+      <c r="G2" t="n">
+        <v>751</v>
+      </c>
+      <c r="H2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Puppy</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>15354</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>17</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12792</v>
+      </c>
+      <c r="F3" t="n">
+        <v>85.77</v>
+      </c>
+      <c r="G3" t="n">
+        <v>298</v>
+      </c>
+      <c r="H3" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>leqek</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2062</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12751</v>
+      </c>
+      <c r="F4" t="n">
+        <v>92.31</v>
+      </c>
+      <c r="G4" t="n">
+        <v>748</v>
+      </c>
+      <c r="H4" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aki</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>14</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8704</v>
+      </c>
+      <c r="F5" t="n">
+        <v>99.06</v>
+      </c>
+      <c r="G5" t="n">
+        <v>600</v>
+      </c>
+      <c r="H5" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PHiZER</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5122</v>
+      </c>
+      <c r="F6" t="n">
+        <v>90.47</v>
+      </c>
+      <c r="G6" t="n">
+        <v>473</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HXJ_ConveX</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>43231</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4575</v>
+      </c>
+      <c r="F7" t="n">
+        <v>95.75</v>
+      </c>
+      <c r="G7" t="n">
+        <v>473</v>
+      </c>
+      <c r="H7" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>schliazterra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10157</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4337</v>
+      </c>
+      <c r="F8" t="n">
+        <v>94.45</v>
+      </c>
+      <c r="G8" t="n">
+        <v>473</v>
+      </c>
+      <c r="H8" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>123ABC456789</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1087298</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4251</v>
+      </c>
+      <c r="F9" t="n">
+        <v>88.81</v>
+      </c>
+      <c r="G9" t="n">
+        <v>545</v>
+      </c>
+      <c r="H9" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lieselotte</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3049</v>
+      </c>
+      <c r="F10" t="n">
+        <v>95.58</v>
+      </c>
+      <c r="G10" t="n">
+        <v>260</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>monkeydluffy3u4</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>13962</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2899</v>
+      </c>
+      <c r="F11" t="n">
+        <v>94.01000000000001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>476</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>picnun3</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>27491</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2503</v>
+      </c>
+      <c r="F12" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="G12" t="n">
+        <v>139</v>
+      </c>
+      <c r="H12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MgerSy</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2134</v>
+      </c>
+      <c r="F13" t="n">
+        <v>91.18000000000001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1090</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>oaboctor</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>63210</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2117</v>
+      </c>
+      <c r="F14" t="n">
+        <v>87.56999999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>270</v>
+      </c>
+      <c r="H14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>naxxx</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1992</v>
+      </c>
+      <c r="F15" t="n">
+        <v>86.37</v>
+      </c>
+      <c r="G15" t="n">
+        <v>339</v>
+      </c>
+      <c r="H15" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Kolaa</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>102744</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1847</v>
+      </c>
+      <c r="F16" t="n">
+        <v>82.93000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>126</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M-Reimu</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1685</v>
+      </c>
+      <c r="F17" t="n">
+        <v>84.16</v>
+      </c>
+      <c r="G17" t="n">
+        <v>219</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Xhs</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>45759</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1678</v>
+      </c>
+      <c r="F18" t="n">
+        <v>83.81</v>
+      </c>
+      <c r="G18" t="n">
+        <v>167</v>
+      </c>
+      <c r="H18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Takumi_Matsuo</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>45091</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1577</v>
+      </c>
+      <c r="F19" t="n">
+        <v>86.41</v>
+      </c>
+      <c r="G19" t="n">
+        <v>229</v>
+      </c>
+      <c r="H19" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>cai_lw</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>25925</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1576</v>
+      </c>
+      <c r="F20" t="n">
+        <v>90.02</v>
+      </c>
+      <c r="G20" t="n">
+        <v>275</v>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ilusions4</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>54532</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1536</v>
+      </c>
+      <c r="F21" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="G21" t="n">
+        <v>473</v>
+      </c>
+      <c r="H21" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>kuerhaocai</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>34870</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1397</v>
+      </c>
+      <c r="F22" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="G22" t="n">
+        <v>276</v>
+      </c>
+      <c r="H22" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>brooster</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>46062</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1266</v>
+      </c>
+      <c r="F23" t="n">
+        <v>88.94</v>
+      </c>
+      <c r="G23" t="n">
+        <v>201</v>
+      </c>
+      <c r="H23" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>minamiP</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>44977</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1167</v>
+      </c>
+      <c r="F24" t="n">
+        <v>86.95999999999999</v>
+      </c>
+      <c r="G24" t="n">
+        <v>198</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2005512s</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3789</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1165</v>
+      </c>
+      <c r="F25" t="n">
+        <v>88.69</v>
+      </c>
+      <c r="G25" t="n">
+        <v>229</v>
+      </c>
+      <c r="H25" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FA_MuLan</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>28814</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F26" t="n">
+        <v>93.11</v>
+      </c>
+      <c r="G26" t="n">
+        <v>473</v>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>kickster29</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>17038</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>4</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1066</v>
+      </c>
+      <c r="F27" t="n">
+        <v>87.28</v>
+      </c>
+      <c r="G27" t="n">
+        <v>79</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Beth66</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>92096</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>4</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1063</v>
+      </c>
+      <c r="F28" t="n">
+        <v>84.13</v>
+      </c>
+      <c r="G28" t="n">
+        <v>76</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1425066</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1017</v>
+      </c>
+      <c r="F29" t="n">
+        <v>78.83</v>
+      </c>
+      <c r="G29" t="n">
+        <v>76</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Markes_D</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>57293</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>4</v>
+      </c>
+      <c r="E30" t="n">
+        <v>997</v>
+      </c>
+      <c r="F30" t="n">
+        <v>92.20999999999999</v>
+      </c>
+      <c r="G30" t="n">
+        <v>226</v>
+      </c>
+      <c r="H30" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rustbell</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" t="n">
+        <v>986</v>
+      </c>
+      <c r="F31" t="n">
+        <v>93.52</v>
+      </c>
+      <c r="G31" t="n">
+        <v>665</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SQkun</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>13094</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>866</v>
+      </c>
+      <c r="F32" t="n">
+        <v>86.53</v>
+      </c>
+      <c r="G32" t="n">
+        <v>148</v>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DURAGONMO</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>25088</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>842</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>238</v>
+      </c>
+      <c r="H33" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>00freeze00</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>36477</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>829</v>
+      </c>
+      <c r="F34" t="n">
+        <v>85.84999999999999</v>
+      </c>
+      <c r="G34" t="n">
+        <v>113</v>
+      </c>
+      <c r="H34" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>LIGHT_MG</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>85931</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>810</v>
+      </c>
+      <c r="F35" t="n">
+        <v>74.69</v>
+      </c>
+      <c r="G35" t="n">
+        <v>87</v>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Taldeus</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>8538</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" t="n">
+        <v>804</v>
+      </c>
+      <c r="F36" t="n">
+        <v>93.54000000000001</v>
+      </c>
+      <c r="G36" t="n">
+        <v>254</v>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BANIP</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4946</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" t="n">
+        <v>797</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>98</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>_MASA</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" t="n">
+        <v>780</v>
+      </c>
+      <c r="F38" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="G38" t="n">
+        <v>180</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>dtlnor</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="n">
+        <v>743</v>
+      </c>
+      <c r="F39" t="n">
+        <v>93.37</v>
+      </c>
+      <c r="G39" t="n">
+        <v>284</v>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>miznejun</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>38954</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" t="n">
+        <v>695</v>
+      </c>
+      <c r="F40" t="n">
+        <v>91.77</v>
+      </c>
+      <c r="G40" t="n">
+        <v>286</v>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ChocolaNeko</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1606</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" t="n">
+        <v>693</v>
+      </c>
+      <c r="F41" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="G41" t="n">
+        <v>195</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Dora</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>3</v>
+      </c>
+      <c r="E42" t="n">
+        <v>658</v>
+      </c>
+      <c r="F42" t="n">
+        <v>83.28</v>
+      </c>
+      <c r="G42" t="n">
+        <v>187</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>bocumamon</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>21104</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>596</v>
+      </c>
+      <c r="F43" t="n">
+        <v>90.61</v>
+      </c>
+      <c r="G43" t="n">
+        <v>138</v>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Rosebox</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>12508</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>2</v>
+      </c>
+      <c r="E44" t="n">
+        <v>585</v>
+      </c>
+      <c r="F44" t="n">
+        <v>88.06999999999999</v>
+      </c>
+      <c r="G44" t="n">
+        <v>142</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ts_s_owl</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>61449</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" t="n">
+        <v>557</v>
+      </c>
+      <c r="F45" t="n">
+        <v>94.27</v>
+      </c>
+      <c r="G45" t="n">
+        <v>560</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Thin76573</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>94016</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" t="n">
+        <v>534</v>
+      </c>
+      <c r="F46" t="n">
+        <v>80.59</v>
+      </c>
+      <c r="G46" t="n">
+        <v>124</v>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Azami_minase</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>84930</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>502</v>
+      </c>
+      <c r="F47" t="n">
+        <v>88.84</v>
+      </c>
+      <c r="G47" t="n">
+        <v>191</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Thasyka</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>86239</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>492</v>
+      </c>
+      <c r="F48" t="n">
+        <v>86.56</v>
+      </c>
+      <c r="G48" t="n">
+        <v>181</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>91365</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>2</v>
+      </c>
+      <c r="E49" t="n">
+        <v>470</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>417</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TY-2</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>39129</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" t="n">
+        <v>470</v>
+      </c>
+      <c r="F50" t="n">
+        <v>90.06</v>
+      </c>
+      <c r="G50" t="n">
+        <v>83</v>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>nbdzxa</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>2</v>
+      </c>
+      <c r="E51" t="n">
+        <v>464</v>
+      </c>
+      <c r="F51" t="n">
+        <v>80.16</v>
+      </c>
+      <c r="G51" t="n">
+        <v>113</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode2.xlsx
+++ b/mode2.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-06-05_00-16" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-07-31_17-45" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-07-31_20-58" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-10-08_13-40" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-10-10_23-04" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-10-28_18-59" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-10-29_20-39" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-10-30_18-27" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-11-02_01-39" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-11-02_18-24" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-11-02_18-57" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_2_2025-11-03_21-36" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="mode_2_2025-06-05_00-16" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="mode_2_2025-07-31_17-45" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="mode_2_2025-07-31_20-58" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="mode_2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="mode_2_2025-10-08_13-40" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="mode_2_2025-10-10_23-04" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="mode_2_2025-10-28_18-59" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="mode_2_2025-10-29_20-39" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="mode_2_2025-10-30_18-27" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="mode_2_2025-11-02_01-39" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="mode_2_2025-11-02_18-24" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="mode_2_2025-11-02_18-57" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="mode_2_2025-11-03_21-36" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="mode_2_2025-11-04_18-18" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7981,6 +7982,1567 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>player_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AnnyQueen</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3897</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21233</v>
+      </c>
+      <c r="F2" t="n">
+        <v>95.39</v>
+      </c>
+      <c r="G2" t="n">
+        <v>751</v>
+      </c>
+      <c r="H2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Puppy</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>15354</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>17</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12792</v>
+      </c>
+      <c r="F3" t="n">
+        <v>85.77</v>
+      </c>
+      <c r="G3" t="n">
+        <v>298</v>
+      </c>
+      <c r="H3" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>leqek</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2062</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12751</v>
+      </c>
+      <c r="F4" t="n">
+        <v>92.31</v>
+      </c>
+      <c r="G4" t="n">
+        <v>748</v>
+      </c>
+      <c r="H4" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aki</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>14</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8704</v>
+      </c>
+      <c r="F5" t="n">
+        <v>99.06</v>
+      </c>
+      <c r="G5" t="n">
+        <v>600</v>
+      </c>
+      <c r="H5" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PHiZER</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5122</v>
+      </c>
+      <c r="F6" t="n">
+        <v>90.47</v>
+      </c>
+      <c r="G6" t="n">
+        <v>473</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HXJ_ConveX</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>43231</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4575</v>
+      </c>
+      <c r="F7" t="n">
+        <v>95.75</v>
+      </c>
+      <c r="G7" t="n">
+        <v>473</v>
+      </c>
+      <c r="H7" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>schliazterra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10157</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4337</v>
+      </c>
+      <c r="F8" t="n">
+        <v>94.45</v>
+      </c>
+      <c r="G8" t="n">
+        <v>473</v>
+      </c>
+      <c r="H8" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>123ABC456789</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1087298</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4251</v>
+      </c>
+      <c r="F9" t="n">
+        <v>88.81</v>
+      </c>
+      <c r="G9" t="n">
+        <v>545</v>
+      </c>
+      <c r="H9" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lieselotte</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3049</v>
+      </c>
+      <c r="F10" t="n">
+        <v>95.58</v>
+      </c>
+      <c r="G10" t="n">
+        <v>260</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>monkeydluffy3u4</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>13962</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2899</v>
+      </c>
+      <c r="F11" t="n">
+        <v>94.01000000000001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>476</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>picnun3</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>27491</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2503</v>
+      </c>
+      <c r="F12" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="G12" t="n">
+        <v>139</v>
+      </c>
+      <c r="H12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MgerSy</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2134</v>
+      </c>
+      <c r="F13" t="n">
+        <v>91.18000000000001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1090</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>oaboctor</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>63210</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2117</v>
+      </c>
+      <c r="F14" t="n">
+        <v>87.56999999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>270</v>
+      </c>
+      <c r="H14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>naxxx</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1992</v>
+      </c>
+      <c r="F15" t="n">
+        <v>86.37</v>
+      </c>
+      <c r="G15" t="n">
+        <v>339</v>
+      </c>
+      <c r="H15" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Kolaa</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>102744</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1847</v>
+      </c>
+      <c r="F16" t="n">
+        <v>82.93000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>126</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M-Reimu</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1685</v>
+      </c>
+      <c r="F17" t="n">
+        <v>84.16</v>
+      </c>
+      <c r="G17" t="n">
+        <v>219</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Xhs</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>45759</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1678</v>
+      </c>
+      <c r="F18" t="n">
+        <v>83.81</v>
+      </c>
+      <c r="G18" t="n">
+        <v>167</v>
+      </c>
+      <c r="H18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Takumi_Matsuo</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>45091</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1577</v>
+      </c>
+      <c r="F19" t="n">
+        <v>86.41</v>
+      </c>
+      <c r="G19" t="n">
+        <v>229</v>
+      </c>
+      <c r="H19" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>cai_lw</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>25925</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1576</v>
+      </c>
+      <c r="F20" t="n">
+        <v>90.02</v>
+      </c>
+      <c r="G20" t="n">
+        <v>275</v>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ilusions4</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>54532</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1536</v>
+      </c>
+      <c r="F21" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="G21" t="n">
+        <v>473</v>
+      </c>
+      <c r="H21" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>kuerhaocai</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>34870</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1397</v>
+      </c>
+      <c r="F22" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="G22" t="n">
+        <v>276</v>
+      </c>
+      <c r="H22" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>brooster</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>46062</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1266</v>
+      </c>
+      <c r="F23" t="n">
+        <v>88.94</v>
+      </c>
+      <c r="G23" t="n">
+        <v>201</v>
+      </c>
+      <c r="H23" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>minamiP</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>44977</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1167</v>
+      </c>
+      <c r="F24" t="n">
+        <v>86.95999999999999</v>
+      </c>
+      <c r="G24" t="n">
+        <v>198</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2005512s</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3789</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1165</v>
+      </c>
+      <c r="F25" t="n">
+        <v>88.69</v>
+      </c>
+      <c r="G25" t="n">
+        <v>229</v>
+      </c>
+      <c r="H25" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FA_MuLan</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>28814</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F26" t="n">
+        <v>93.11</v>
+      </c>
+      <c r="G26" t="n">
+        <v>473</v>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>kickster29</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>17038</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>4</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1066</v>
+      </c>
+      <c r="F27" t="n">
+        <v>87.28</v>
+      </c>
+      <c r="G27" t="n">
+        <v>79</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Beth66</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>92096</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>4</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1063</v>
+      </c>
+      <c r="F28" t="n">
+        <v>84.13</v>
+      </c>
+      <c r="G28" t="n">
+        <v>76</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1425066</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1017</v>
+      </c>
+      <c r="F29" t="n">
+        <v>78.83</v>
+      </c>
+      <c r="G29" t="n">
+        <v>76</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Markes_D</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>57293</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>4</v>
+      </c>
+      <c r="E30" t="n">
+        <v>997</v>
+      </c>
+      <c r="F30" t="n">
+        <v>92.20999999999999</v>
+      </c>
+      <c r="G30" t="n">
+        <v>226</v>
+      </c>
+      <c r="H30" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rustbell</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" t="n">
+        <v>986</v>
+      </c>
+      <c r="F31" t="n">
+        <v>93.52</v>
+      </c>
+      <c r="G31" t="n">
+        <v>665</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SQkun</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>13094</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>866</v>
+      </c>
+      <c r="F32" t="n">
+        <v>86.53</v>
+      </c>
+      <c r="G32" t="n">
+        <v>148</v>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DURAGONMO</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>25088</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>842</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>238</v>
+      </c>
+      <c r="H33" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>00freeze00</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>36477</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>829</v>
+      </c>
+      <c r="F34" t="n">
+        <v>85.84999999999999</v>
+      </c>
+      <c r="G34" t="n">
+        <v>113</v>
+      </c>
+      <c r="H34" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>LIGHT_MG</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>85931</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>810</v>
+      </c>
+      <c r="F35" t="n">
+        <v>74.69</v>
+      </c>
+      <c r="G35" t="n">
+        <v>87</v>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Taldeus</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>8538</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" t="n">
+        <v>804</v>
+      </c>
+      <c r="F36" t="n">
+        <v>93.54000000000001</v>
+      </c>
+      <c r="G36" t="n">
+        <v>254</v>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BANIP</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4946</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" t="n">
+        <v>797</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>98</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>_MASA</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" t="n">
+        <v>780</v>
+      </c>
+      <c r="F38" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="G38" t="n">
+        <v>180</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>dtlnor</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="n">
+        <v>743</v>
+      </c>
+      <c r="F39" t="n">
+        <v>93.37</v>
+      </c>
+      <c r="G39" t="n">
+        <v>284</v>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>miznejun</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>38954</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" t="n">
+        <v>695</v>
+      </c>
+      <c r="F40" t="n">
+        <v>91.77</v>
+      </c>
+      <c r="G40" t="n">
+        <v>286</v>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ChocolaNeko</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1606</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" t="n">
+        <v>693</v>
+      </c>
+      <c r="F41" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="G41" t="n">
+        <v>195</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Dora</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>3</v>
+      </c>
+      <c r="E42" t="n">
+        <v>658</v>
+      </c>
+      <c r="F42" t="n">
+        <v>83.28</v>
+      </c>
+      <c r="G42" t="n">
+        <v>187</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>bocumamon</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>21104</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>596</v>
+      </c>
+      <c r="F43" t="n">
+        <v>90.61</v>
+      </c>
+      <c r="G43" t="n">
+        <v>138</v>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Rosebox</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>12508</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>2</v>
+      </c>
+      <c r="E44" t="n">
+        <v>585</v>
+      </c>
+      <c r="F44" t="n">
+        <v>88.06999999999999</v>
+      </c>
+      <c r="G44" t="n">
+        <v>142</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ts_s_owl</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>61449</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" t="n">
+        <v>557</v>
+      </c>
+      <c r="F45" t="n">
+        <v>94.27</v>
+      </c>
+      <c r="G45" t="n">
+        <v>560</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Thin76573</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>94016</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" t="n">
+        <v>534</v>
+      </c>
+      <c r="F46" t="n">
+        <v>80.59</v>
+      </c>
+      <c r="G46" t="n">
+        <v>124</v>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Azami_minase</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>84930</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>502</v>
+      </c>
+      <c r="F47" t="n">
+        <v>88.84</v>
+      </c>
+      <c r="G47" t="n">
+        <v>191</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Thasyka</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>86239</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>492</v>
+      </c>
+      <c r="F48" t="n">
+        <v>86.56</v>
+      </c>
+      <c r="G48" t="n">
+        <v>181</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>91365</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>2</v>
+      </c>
+      <c r="E49" t="n">
+        <v>470</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>417</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TY-2</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>39129</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" t="n">
+        <v>470</v>
+      </c>
+      <c r="F50" t="n">
+        <v>90.06</v>
+      </c>
+      <c r="G50" t="n">
+        <v>83</v>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>nbdzxa</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>2</v>
+      </c>
+      <c r="E51" t="n">
+        <v>464</v>
+      </c>
+      <c r="F51" t="n">
+        <v>80.16</v>
+      </c>
+      <c r="G51" t="n">
+        <v>113</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode2.xlsx
+++ b/mode2.xlsx
@@ -21,6 +21,7 @@
     <sheet name="mode_2_2025-11-02_18-57" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="mode_2_2025-11-03_21-36" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="mode_2_2025-11-04_18-18" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="mode_2_2025-11-05_18-07" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9543,6 +9544,1567 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>player_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AnnyQueen</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3897</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21233</v>
+      </c>
+      <c r="F2" t="n">
+        <v>95.39</v>
+      </c>
+      <c r="G2" t="n">
+        <v>751</v>
+      </c>
+      <c r="H2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Puppy</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>15354</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>17</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12792</v>
+      </c>
+      <c r="F3" t="n">
+        <v>85.77</v>
+      </c>
+      <c r="G3" t="n">
+        <v>298</v>
+      </c>
+      <c r="H3" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>leqek</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2062</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12751</v>
+      </c>
+      <c r="F4" t="n">
+        <v>92.31</v>
+      </c>
+      <c r="G4" t="n">
+        <v>748</v>
+      </c>
+      <c r="H4" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aki</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>14</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8704</v>
+      </c>
+      <c r="F5" t="n">
+        <v>99.06</v>
+      </c>
+      <c r="G5" t="n">
+        <v>600</v>
+      </c>
+      <c r="H5" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PHiZER</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5122</v>
+      </c>
+      <c r="F6" t="n">
+        <v>90.47</v>
+      </c>
+      <c r="G6" t="n">
+        <v>473</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HXJ_ConveX</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>43231</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4575</v>
+      </c>
+      <c r="F7" t="n">
+        <v>95.75</v>
+      </c>
+      <c r="G7" t="n">
+        <v>473</v>
+      </c>
+      <c r="H7" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>schliazterra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10157</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4337</v>
+      </c>
+      <c r="F8" t="n">
+        <v>94.45</v>
+      </c>
+      <c r="G8" t="n">
+        <v>473</v>
+      </c>
+      <c r="H8" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>123ABC456789</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1087298</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4251</v>
+      </c>
+      <c r="F9" t="n">
+        <v>88.81</v>
+      </c>
+      <c r="G9" t="n">
+        <v>545</v>
+      </c>
+      <c r="H9" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lieselotte</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3049</v>
+      </c>
+      <c r="F10" t="n">
+        <v>95.58</v>
+      </c>
+      <c r="G10" t="n">
+        <v>260</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>monkeydluffy3u4</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>13962</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2899</v>
+      </c>
+      <c r="F11" t="n">
+        <v>94.01000000000001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>476</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>picnun3</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>27491</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2503</v>
+      </c>
+      <c r="F12" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="G12" t="n">
+        <v>139</v>
+      </c>
+      <c r="H12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MgerSy</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2134</v>
+      </c>
+      <c r="F13" t="n">
+        <v>91.18000000000001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1090</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>oaboctor</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>63210</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2117</v>
+      </c>
+      <c r="F14" t="n">
+        <v>87.56999999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>270</v>
+      </c>
+      <c r="H14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>naxxx</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1992</v>
+      </c>
+      <c r="F15" t="n">
+        <v>86.37</v>
+      </c>
+      <c r="G15" t="n">
+        <v>339</v>
+      </c>
+      <c r="H15" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Kolaa</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>102744</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1847</v>
+      </c>
+      <c r="F16" t="n">
+        <v>82.93000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>126</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M-Reimu</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1685</v>
+      </c>
+      <c r="F17" t="n">
+        <v>84.16</v>
+      </c>
+      <c r="G17" t="n">
+        <v>219</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Xhs</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>45759</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1678</v>
+      </c>
+      <c r="F18" t="n">
+        <v>83.81</v>
+      </c>
+      <c r="G18" t="n">
+        <v>167</v>
+      </c>
+      <c r="H18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Takumi_Matsuo</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>45091</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1577</v>
+      </c>
+      <c r="F19" t="n">
+        <v>86.41</v>
+      </c>
+      <c r="G19" t="n">
+        <v>229</v>
+      </c>
+      <c r="H19" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>cai_lw</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>25925</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1576</v>
+      </c>
+      <c r="F20" t="n">
+        <v>90.02</v>
+      </c>
+      <c r="G20" t="n">
+        <v>275</v>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ilusions4</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>54532</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1536</v>
+      </c>
+      <c r="F21" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="G21" t="n">
+        <v>473</v>
+      </c>
+      <c r="H21" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>kuerhaocai</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>34870</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1397</v>
+      </c>
+      <c r="F22" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="G22" t="n">
+        <v>276</v>
+      </c>
+      <c r="H22" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>brooster</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>46062</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1266</v>
+      </c>
+      <c r="F23" t="n">
+        <v>88.94</v>
+      </c>
+      <c r="G23" t="n">
+        <v>201</v>
+      </c>
+      <c r="H23" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>minamiP</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>44977</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1167</v>
+      </c>
+      <c r="F24" t="n">
+        <v>86.95999999999999</v>
+      </c>
+      <c r="G24" t="n">
+        <v>198</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2005512s</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3789</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1165</v>
+      </c>
+      <c r="F25" t="n">
+        <v>88.69</v>
+      </c>
+      <c r="G25" t="n">
+        <v>229</v>
+      </c>
+      <c r="H25" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FA_MuLan</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>28814</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F26" t="n">
+        <v>93.11</v>
+      </c>
+      <c r="G26" t="n">
+        <v>473</v>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>kickster29</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>17038</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>4</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1066</v>
+      </c>
+      <c r="F27" t="n">
+        <v>87.28</v>
+      </c>
+      <c r="G27" t="n">
+        <v>79</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Beth66</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>92096</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>4</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1063</v>
+      </c>
+      <c r="F28" t="n">
+        <v>84.13</v>
+      </c>
+      <c r="G28" t="n">
+        <v>76</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1425066</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1017</v>
+      </c>
+      <c r="F29" t="n">
+        <v>78.83</v>
+      </c>
+      <c r="G29" t="n">
+        <v>76</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Markes_D</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>57293</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>4</v>
+      </c>
+      <c r="E30" t="n">
+        <v>997</v>
+      </c>
+      <c r="F30" t="n">
+        <v>92.20999999999999</v>
+      </c>
+      <c r="G30" t="n">
+        <v>226</v>
+      </c>
+      <c r="H30" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rustbell</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" t="n">
+        <v>986</v>
+      </c>
+      <c r="F31" t="n">
+        <v>93.52</v>
+      </c>
+      <c r="G31" t="n">
+        <v>665</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SQkun</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>13094</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>866</v>
+      </c>
+      <c r="F32" t="n">
+        <v>86.53</v>
+      </c>
+      <c r="G32" t="n">
+        <v>148</v>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DURAGONMO</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>25088</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>842</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>238</v>
+      </c>
+      <c r="H33" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>00freeze00</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>36477</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>829</v>
+      </c>
+      <c r="F34" t="n">
+        <v>85.84999999999999</v>
+      </c>
+      <c r="G34" t="n">
+        <v>113</v>
+      </c>
+      <c r="H34" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>LIGHT_MG</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>85931</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>810</v>
+      </c>
+      <c r="F35" t="n">
+        <v>74.69</v>
+      </c>
+      <c r="G35" t="n">
+        <v>87</v>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Taldeus</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>8538</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" t="n">
+        <v>804</v>
+      </c>
+      <c r="F36" t="n">
+        <v>93.54000000000001</v>
+      </c>
+      <c r="G36" t="n">
+        <v>254</v>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BANIP</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4946</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" t="n">
+        <v>797</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>98</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>_MASA</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" t="n">
+        <v>780</v>
+      </c>
+      <c r="F38" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="G38" t="n">
+        <v>180</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>dtlnor</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="n">
+        <v>743</v>
+      </c>
+      <c r="F39" t="n">
+        <v>93.37</v>
+      </c>
+      <c r="G39" t="n">
+        <v>284</v>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>miznejun</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>38954</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" t="n">
+        <v>695</v>
+      </c>
+      <c r="F40" t="n">
+        <v>91.77</v>
+      </c>
+      <c r="G40" t="n">
+        <v>286</v>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ChocolaNeko</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1606</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" t="n">
+        <v>693</v>
+      </c>
+      <c r="F41" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="G41" t="n">
+        <v>195</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Dora</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>3</v>
+      </c>
+      <c r="E42" t="n">
+        <v>658</v>
+      </c>
+      <c r="F42" t="n">
+        <v>83.28</v>
+      </c>
+      <c r="G42" t="n">
+        <v>187</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>bocumamon</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>21104</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>596</v>
+      </c>
+      <c r="F43" t="n">
+        <v>90.61</v>
+      </c>
+      <c r="G43" t="n">
+        <v>138</v>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Rosebox</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>12508</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>2</v>
+      </c>
+      <c r="E44" t="n">
+        <v>585</v>
+      </c>
+      <c r="F44" t="n">
+        <v>88.06999999999999</v>
+      </c>
+      <c r="G44" t="n">
+        <v>142</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ts_s_owl</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>61449</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" t="n">
+        <v>557</v>
+      </c>
+      <c r="F45" t="n">
+        <v>94.27</v>
+      </c>
+      <c r="G45" t="n">
+        <v>560</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Thin76573</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>94016</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" t="n">
+        <v>534</v>
+      </c>
+      <c r="F46" t="n">
+        <v>80.59</v>
+      </c>
+      <c r="G46" t="n">
+        <v>124</v>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Azami_minase</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>84930</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>502</v>
+      </c>
+      <c r="F47" t="n">
+        <v>88.84</v>
+      </c>
+      <c r="G47" t="n">
+        <v>191</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Thasyka</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>86239</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>492</v>
+      </c>
+      <c r="F48" t="n">
+        <v>86.56</v>
+      </c>
+      <c r="G48" t="n">
+        <v>181</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>91365</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>2</v>
+      </c>
+      <c r="E49" t="n">
+        <v>470</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>417</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TY-2</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>39129</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" t="n">
+        <v>470</v>
+      </c>
+      <c r="F50" t="n">
+        <v>90.06</v>
+      </c>
+      <c r="G50" t="n">
+        <v>83</v>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>nbdzxa</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>2</v>
+      </c>
+      <c r="E51" t="n">
+        <v>464</v>
+      </c>
+      <c r="F51" t="n">
+        <v>80.16</v>
+      </c>
+      <c r="G51" t="n">
+        <v>113</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode2.xlsx
+++ b/mode2.xlsx
@@ -22,6 +22,7 @@
     <sheet name="mode_2_2025-11-03_21-36" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="mode_2_2025-11-04_18-18" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="mode_2_2025-11-05_18-07" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="mode_2_2025-11-06_18-11" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11105,6 +11106,1567 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>player_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AnnyQueen</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3897</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21233</v>
+      </c>
+      <c r="F2" t="n">
+        <v>95.39</v>
+      </c>
+      <c r="G2" t="n">
+        <v>751</v>
+      </c>
+      <c r="H2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Puppy</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>15354</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>17</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12792</v>
+      </c>
+      <c r="F3" t="n">
+        <v>85.77</v>
+      </c>
+      <c r="G3" t="n">
+        <v>298</v>
+      </c>
+      <c r="H3" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>leqek</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2062</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12751</v>
+      </c>
+      <c r="F4" t="n">
+        <v>92.31</v>
+      </c>
+      <c r="G4" t="n">
+        <v>748</v>
+      </c>
+      <c r="H4" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aki</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>14</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8704</v>
+      </c>
+      <c r="F5" t="n">
+        <v>99.06</v>
+      </c>
+      <c r="G5" t="n">
+        <v>600</v>
+      </c>
+      <c r="H5" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PHiZER</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5122</v>
+      </c>
+      <c r="F6" t="n">
+        <v>90.47</v>
+      </c>
+      <c r="G6" t="n">
+        <v>473</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HXJ_ConveX</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>43231</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4575</v>
+      </c>
+      <c r="F7" t="n">
+        <v>95.75</v>
+      </c>
+      <c r="G7" t="n">
+        <v>473</v>
+      </c>
+      <c r="H7" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>schliazterra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10157</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4337</v>
+      </c>
+      <c r="F8" t="n">
+        <v>94.45</v>
+      </c>
+      <c r="G8" t="n">
+        <v>473</v>
+      </c>
+      <c r="H8" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>123ABC456789</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1087298</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4251</v>
+      </c>
+      <c r="F9" t="n">
+        <v>88.81</v>
+      </c>
+      <c r="G9" t="n">
+        <v>545</v>
+      </c>
+      <c r="H9" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lieselotte</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3049</v>
+      </c>
+      <c r="F10" t="n">
+        <v>95.58</v>
+      </c>
+      <c r="G10" t="n">
+        <v>260</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>monkeydluffy3u4</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>13962</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2899</v>
+      </c>
+      <c r="F11" t="n">
+        <v>94.01000000000001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>476</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>picnun3</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>27491</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2503</v>
+      </c>
+      <c r="F12" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="G12" t="n">
+        <v>139</v>
+      </c>
+      <c r="H12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MgerSy</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2134</v>
+      </c>
+      <c r="F13" t="n">
+        <v>91.18000000000001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1090</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>oaboctor</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>63210</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2117</v>
+      </c>
+      <c r="F14" t="n">
+        <v>87.56999999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>270</v>
+      </c>
+      <c r="H14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>naxxx</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1992</v>
+      </c>
+      <c r="F15" t="n">
+        <v>86.37</v>
+      </c>
+      <c r="G15" t="n">
+        <v>339</v>
+      </c>
+      <c r="H15" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Kolaa</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>102744</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1847</v>
+      </c>
+      <c r="F16" t="n">
+        <v>82.93000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>126</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M-Reimu</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1685</v>
+      </c>
+      <c r="F17" t="n">
+        <v>84.16</v>
+      </c>
+      <c r="G17" t="n">
+        <v>219</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Xhs</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>45759</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1678</v>
+      </c>
+      <c r="F18" t="n">
+        <v>83.81</v>
+      </c>
+      <c r="G18" t="n">
+        <v>167</v>
+      </c>
+      <c r="H18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Takumi_Matsuo</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>45091</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1577</v>
+      </c>
+      <c r="F19" t="n">
+        <v>86.41</v>
+      </c>
+      <c r="G19" t="n">
+        <v>229</v>
+      </c>
+      <c r="H19" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>cai_lw</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>25925</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1576</v>
+      </c>
+      <c r="F20" t="n">
+        <v>90.02</v>
+      </c>
+      <c r="G20" t="n">
+        <v>275</v>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ilusions4</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>54532</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1536</v>
+      </c>
+      <c r="F21" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="G21" t="n">
+        <v>473</v>
+      </c>
+      <c r="H21" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>kuerhaocai</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>34870</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1397</v>
+      </c>
+      <c r="F22" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="G22" t="n">
+        <v>276</v>
+      </c>
+      <c r="H22" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>brooster</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>46062</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1266</v>
+      </c>
+      <c r="F23" t="n">
+        <v>88.94</v>
+      </c>
+      <c r="G23" t="n">
+        <v>201</v>
+      </c>
+      <c r="H23" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>minamiP</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>44977</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1167</v>
+      </c>
+      <c r="F24" t="n">
+        <v>86.95999999999999</v>
+      </c>
+      <c r="G24" t="n">
+        <v>198</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2005512s</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3789</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1165</v>
+      </c>
+      <c r="F25" t="n">
+        <v>88.69</v>
+      </c>
+      <c r="G25" t="n">
+        <v>229</v>
+      </c>
+      <c r="H25" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FA_MuLan</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>28814</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F26" t="n">
+        <v>93.11</v>
+      </c>
+      <c r="G26" t="n">
+        <v>473</v>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>kickster29</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>17038</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>4</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1066</v>
+      </c>
+      <c r="F27" t="n">
+        <v>87.28</v>
+      </c>
+      <c r="G27" t="n">
+        <v>79</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Beth66</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>92096</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>4</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1063</v>
+      </c>
+      <c r="F28" t="n">
+        <v>84.13</v>
+      </c>
+      <c r="G28" t="n">
+        <v>76</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1425066</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1017</v>
+      </c>
+      <c r="F29" t="n">
+        <v>78.83</v>
+      </c>
+      <c r="G29" t="n">
+        <v>76</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Markes_D</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>57293</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>4</v>
+      </c>
+      <c r="E30" t="n">
+        <v>997</v>
+      </c>
+      <c r="F30" t="n">
+        <v>92.20999999999999</v>
+      </c>
+      <c r="G30" t="n">
+        <v>226</v>
+      </c>
+      <c r="H30" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rustbell</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" t="n">
+        <v>986</v>
+      </c>
+      <c r="F31" t="n">
+        <v>93.52</v>
+      </c>
+      <c r="G31" t="n">
+        <v>665</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SQkun</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>13094</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>866</v>
+      </c>
+      <c r="F32" t="n">
+        <v>86.53</v>
+      </c>
+      <c r="G32" t="n">
+        <v>148</v>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DURAGONMO</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>25088</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>842</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>238</v>
+      </c>
+      <c r="H33" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>00freeze00</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>36477</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>829</v>
+      </c>
+      <c r="F34" t="n">
+        <v>85.84999999999999</v>
+      </c>
+      <c r="G34" t="n">
+        <v>113</v>
+      </c>
+      <c r="H34" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>LIGHT_MG</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>85931</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>810</v>
+      </c>
+      <c r="F35" t="n">
+        <v>74.69</v>
+      </c>
+      <c r="G35" t="n">
+        <v>87</v>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Taldeus</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>8538</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" t="n">
+        <v>804</v>
+      </c>
+      <c r="F36" t="n">
+        <v>93.54000000000001</v>
+      </c>
+      <c r="G36" t="n">
+        <v>254</v>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BANIP</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4946</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" t="n">
+        <v>797</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>98</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>_MASA</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" t="n">
+        <v>780</v>
+      </c>
+      <c r="F38" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="G38" t="n">
+        <v>180</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>dtlnor</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="n">
+        <v>743</v>
+      </c>
+      <c r="F39" t="n">
+        <v>93.37</v>
+      </c>
+      <c r="G39" t="n">
+        <v>284</v>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>miznejun</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>38954</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" t="n">
+        <v>695</v>
+      </c>
+      <c r="F40" t="n">
+        <v>91.77</v>
+      </c>
+      <c r="G40" t="n">
+        <v>286</v>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ChocolaNeko</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1606</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" t="n">
+        <v>693</v>
+      </c>
+      <c r="F41" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="G41" t="n">
+        <v>195</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Dora</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>3</v>
+      </c>
+      <c r="E42" t="n">
+        <v>658</v>
+      </c>
+      <c r="F42" t="n">
+        <v>83.28</v>
+      </c>
+      <c r="G42" t="n">
+        <v>187</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>bocumamon</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>21104</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>596</v>
+      </c>
+      <c r="F43" t="n">
+        <v>90.61</v>
+      </c>
+      <c r="G43" t="n">
+        <v>138</v>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Rosebox</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>12508</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>2</v>
+      </c>
+      <c r="E44" t="n">
+        <v>585</v>
+      </c>
+      <c r="F44" t="n">
+        <v>88.06999999999999</v>
+      </c>
+      <c r="G44" t="n">
+        <v>142</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ts_s_owl</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>61449</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" t="n">
+        <v>557</v>
+      </c>
+      <c r="F45" t="n">
+        <v>94.27</v>
+      </c>
+      <c r="G45" t="n">
+        <v>560</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Thin76573</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>94016</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" t="n">
+        <v>534</v>
+      </c>
+      <c r="F46" t="n">
+        <v>80.59</v>
+      </c>
+      <c r="G46" t="n">
+        <v>124</v>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Azami_minase</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>84930</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>502</v>
+      </c>
+      <c r="F47" t="n">
+        <v>88.84</v>
+      </c>
+      <c r="G47" t="n">
+        <v>191</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Thasyka</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>86239</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>492</v>
+      </c>
+      <c r="F48" t="n">
+        <v>86.56</v>
+      </c>
+      <c r="G48" t="n">
+        <v>181</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>91365</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>2</v>
+      </c>
+      <c r="E49" t="n">
+        <v>470</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>417</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TY-2</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>39129</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" t="n">
+        <v>470</v>
+      </c>
+      <c r="F50" t="n">
+        <v>90.06</v>
+      </c>
+      <c r="G50" t="n">
+        <v>83</v>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>nbdzxa</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>2</v>
+      </c>
+      <c r="E51" t="n">
+        <v>464</v>
+      </c>
+      <c r="F51" t="n">
+        <v>80.16</v>
+      </c>
+      <c r="G51" t="n">
+        <v>113</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode2.xlsx
+++ b/mode2.xlsx
@@ -23,6 +23,7 @@
     <sheet name="mode_2_2025-11-04_18-18" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="mode_2_2025-11-05_18-07" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="mode_2_2025-11-06_18-11" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="mode_2_2025-11-08_03-38" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12667,6 +12668,1567 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>player_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AnnyQueen</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3897</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21233</v>
+      </c>
+      <c r="F2" t="n">
+        <v>95.39</v>
+      </c>
+      <c r="G2" t="n">
+        <v>751</v>
+      </c>
+      <c r="H2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Puppy</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>15354</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>17</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12792</v>
+      </c>
+      <c r="F3" t="n">
+        <v>85.77</v>
+      </c>
+      <c r="G3" t="n">
+        <v>298</v>
+      </c>
+      <c r="H3" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>leqek</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2062</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12751</v>
+      </c>
+      <c r="F4" t="n">
+        <v>92.31</v>
+      </c>
+      <c r="G4" t="n">
+        <v>748</v>
+      </c>
+      <c r="H4" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aki</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>14</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8704</v>
+      </c>
+      <c r="F5" t="n">
+        <v>99.06</v>
+      </c>
+      <c r="G5" t="n">
+        <v>600</v>
+      </c>
+      <c r="H5" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PHiZER</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5122</v>
+      </c>
+      <c r="F6" t="n">
+        <v>90.47</v>
+      </c>
+      <c r="G6" t="n">
+        <v>473</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HXJ_ConveX</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>43231</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4575</v>
+      </c>
+      <c r="F7" t="n">
+        <v>95.75</v>
+      </c>
+      <c r="G7" t="n">
+        <v>473</v>
+      </c>
+      <c r="H7" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>schliazterra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10157</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4337</v>
+      </c>
+      <c r="F8" t="n">
+        <v>94.45</v>
+      </c>
+      <c r="G8" t="n">
+        <v>473</v>
+      </c>
+      <c r="H8" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>123ABC456789</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1087298</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4251</v>
+      </c>
+      <c r="F9" t="n">
+        <v>88.81</v>
+      </c>
+      <c r="G9" t="n">
+        <v>545</v>
+      </c>
+      <c r="H9" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lieselotte</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3049</v>
+      </c>
+      <c r="F10" t="n">
+        <v>95.58</v>
+      </c>
+      <c r="G10" t="n">
+        <v>260</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>monkeydluffy3u4</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>13962</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2899</v>
+      </c>
+      <c r="F11" t="n">
+        <v>94.01000000000001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>476</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>picnun3</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>27491</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2503</v>
+      </c>
+      <c r="F12" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="G12" t="n">
+        <v>139</v>
+      </c>
+      <c r="H12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MgerSy</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2134</v>
+      </c>
+      <c r="F13" t="n">
+        <v>91.18000000000001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1090</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>oaboctor</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>63210</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2117</v>
+      </c>
+      <c r="F14" t="n">
+        <v>87.56999999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>270</v>
+      </c>
+      <c r="H14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>naxxx</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1992</v>
+      </c>
+      <c r="F15" t="n">
+        <v>86.37</v>
+      </c>
+      <c r="G15" t="n">
+        <v>339</v>
+      </c>
+      <c r="H15" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Kolaa</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>102744</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1847</v>
+      </c>
+      <c r="F16" t="n">
+        <v>82.93000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>126</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M-Reimu</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1685</v>
+      </c>
+      <c r="F17" t="n">
+        <v>84.16</v>
+      </c>
+      <c r="G17" t="n">
+        <v>219</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Xhs</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>45759</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1678</v>
+      </c>
+      <c r="F18" t="n">
+        <v>83.81</v>
+      </c>
+      <c r="G18" t="n">
+        <v>167</v>
+      </c>
+      <c r="H18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Takumi_Matsuo</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>45091</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1577</v>
+      </c>
+      <c r="F19" t="n">
+        <v>86.41</v>
+      </c>
+      <c r="G19" t="n">
+        <v>229</v>
+      </c>
+      <c r="H19" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>cai_lw</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>25925</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1576</v>
+      </c>
+      <c r="F20" t="n">
+        <v>90.02</v>
+      </c>
+      <c r="G20" t="n">
+        <v>275</v>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ilusions4</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>54532</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1536</v>
+      </c>
+      <c r="F21" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="G21" t="n">
+        <v>473</v>
+      </c>
+      <c r="H21" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>kuerhaocai</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>34870</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1397</v>
+      </c>
+      <c r="F22" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="G22" t="n">
+        <v>276</v>
+      </c>
+      <c r="H22" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>brooster</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>46062</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1266</v>
+      </c>
+      <c r="F23" t="n">
+        <v>88.94</v>
+      </c>
+      <c r="G23" t="n">
+        <v>201</v>
+      </c>
+      <c r="H23" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>minamiP</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>44977</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1167</v>
+      </c>
+      <c r="F24" t="n">
+        <v>86.95999999999999</v>
+      </c>
+      <c r="G24" t="n">
+        <v>198</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2005512s</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3789</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1165</v>
+      </c>
+      <c r="F25" t="n">
+        <v>88.69</v>
+      </c>
+      <c r="G25" t="n">
+        <v>229</v>
+      </c>
+      <c r="H25" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FA_MuLan</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>28814</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F26" t="n">
+        <v>93.11</v>
+      </c>
+      <c r="G26" t="n">
+        <v>473</v>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>kickster29</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>17038</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>4</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1066</v>
+      </c>
+      <c r="F27" t="n">
+        <v>87.28</v>
+      </c>
+      <c r="G27" t="n">
+        <v>79</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Beth66</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>92096</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>4</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1063</v>
+      </c>
+      <c r="F28" t="n">
+        <v>84.13</v>
+      </c>
+      <c r="G28" t="n">
+        <v>76</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1425066</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1017</v>
+      </c>
+      <c r="F29" t="n">
+        <v>78.83</v>
+      </c>
+      <c r="G29" t="n">
+        <v>76</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Markes_D</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>57293</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>4</v>
+      </c>
+      <c r="E30" t="n">
+        <v>997</v>
+      </c>
+      <c r="F30" t="n">
+        <v>92.20999999999999</v>
+      </c>
+      <c r="G30" t="n">
+        <v>226</v>
+      </c>
+      <c r="H30" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rustbell</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" t="n">
+        <v>986</v>
+      </c>
+      <c r="F31" t="n">
+        <v>93.52</v>
+      </c>
+      <c r="G31" t="n">
+        <v>665</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SQkun</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>13094</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>866</v>
+      </c>
+      <c r="F32" t="n">
+        <v>86.53</v>
+      </c>
+      <c r="G32" t="n">
+        <v>148</v>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DURAGONMO</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>25088</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>842</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>238</v>
+      </c>
+      <c r="H33" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>00freeze00</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>36477</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>829</v>
+      </c>
+      <c r="F34" t="n">
+        <v>85.84999999999999</v>
+      </c>
+      <c r="G34" t="n">
+        <v>113</v>
+      </c>
+      <c r="H34" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>LIGHT_MG</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>85931</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>810</v>
+      </c>
+      <c r="F35" t="n">
+        <v>74.69</v>
+      </c>
+      <c r="G35" t="n">
+        <v>87</v>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Taldeus</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>8538</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" t="n">
+        <v>804</v>
+      </c>
+      <c r="F36" t="n">
+        <v>93.54000000000001</v>
+      </c>
+      <c r="G36" t="n">
+        <v>254</v>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BANIP</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4946</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" t="n">
+        <v>797</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>98</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>_MASA</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" t="n">
+        <v>780</v>
+      </c>
+      <c r="F38" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="G38" t="n">
+        <v>180</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>dtlnor</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="n">
+        <v>743</v>
+      </c>
+      <c r="F39" t="n">
+        <v>93.37</v>
+      </c>
+      <c r="G39" t="n">
+        <v>284</v>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>miznejun</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>38954</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" t="n">
+        <v>695</v>
+      </c>
+      <c r="F40" t="n">
+        <v>91.77</v>
+      </c>
+      <c r="G40" t="n">
+        <v>286</v>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ChocolaNeko</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1606</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" t="n">
+        <v>693</v>
+      </c>
+      <c r="F41" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="G41" t="n">
+        <v>195</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Dora</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>3</v>
+      </c>
+      <c r="E42" t="n">
+        <v>658</v>
+      </c>
+      <c r="F42" t="n">
+        <v>83.28</v>
+      </c>
+      <c r="G42" t="n">
+        <v>187</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>bocumamon</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>21104</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>596</v>
+      </c>
+      <c r="F43" t="n">
+        <v>90.61</v>
+      </c>
+      <c r="G43" t="n">
+        <v>138</v>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Rosebox</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>12508</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>2</v>
+      </c>
+      <c r="E44" t="n">
+        <v>585</v>
+      </c>
+      <c r="F44" t="n">
+        <v>88.06999999999999</v>
+      </c>
+      <c r="G44" t="n">
+        <v>142</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ts_s_owl</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>61449</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" t="n">
+        <v>557</v>
+      </c>
+      <c r="F45" t="n">
+        <v>94.27</v>
+      </c>
+      <c r="G45" t="n">
+        <v>560</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Thin76573</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>94016</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" t="n">
+        <v>534</v>
+      </c>
+      <c r="F46" t="n">
+        <v>80.59</v>
+      </c>
+      <c r="G46" t="n">
+        <v>124</v>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Azami_minase</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>84930</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>502</v>
+      </c>
+      <c r="F47" t="n">
+        <v>88.84</v>
+      </c>
+      <c r="G47" t="n">
+        <v>191</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Thasyka</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>86239</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>492</v>
+      </c>
+      <c r="F48" t="n">
+        <v>86.56</v>
+      </c>
+      <c r="G48" t="n">
+        <v>181</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>91365</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>2</v>
+      </c>
+      <c r="E49" t="n">
+        <v>470</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>417</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TY-2</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>39129</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" t="n">
+        <v>470</v>
+      </c>
+      <c r="F50" t="n">
+        <v>90.06</v>
+      </c>
+      <c r="G50" t="n">
+        <v>83</v>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>nbdzxa</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>2</v>
+      </c>
+      <c r="E51" t="n">
+        <v>464</v>
+      </c>
+      <c r="F51" t="n">
+        <v>80.16</v>
+      </c>
+      <c r="G51" t="n">
+        <v>113</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
